--- a/qa.xlsx
+++ b/qa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhozh/Desktop/projects/python/bots/pelican_helper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6529E33C-EC23-8C4E-88AC-2D0FE4ADE231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272FF5A8-4132-154D-989B-BA700CFE1473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,9 +619,6 @@
     <t>При условии свободного бюджетного места и твоей хорошей успеваемости можно попробовать перевестить с контрактной на бюджетную форму обучения, обратись с этим вопросом в дирекцию своего института</t>
   </si>
   <si>
-    <t>перевод на бюджет</t>
-  </si>
-  <si>
     <t>Можно ли создать своё объединение?</t>
   </si>
   <si>
@@ -879,9 +876,6 @@
   </si>
   <si>
     <t>Каждый год это разные секции. Вся информация транслируется здесь https://vk.com/sport.spbstu.</t>
-  </si>
-  <si>
-    <t>секции нет разрядов</t>
   </si>
   <si>
     <t>Если меня записали в спец.группу, то я занимаюсь где-то в другом месте от своих одногруппников?</t>
@@ -1935,9 +1929,6 @@
   </si>
   <si>
     <t>Мне трудно сказать, где будет учиться именно твоя группа, всё-таки Политех не такой уж маленький. Однако есть карта кампуса, благодаря которой ты быстро найдёшь для себя ответ (https://www.spbstu.ru/campus-map/index.php).</t>
-  </si>
-  <si>
-    <t>корпус учиться</t>
   </si>
   <si>
     <t>Где можно посмотреть расписание?</t>
@@ -2940,9 +2931,6 @@
     <t>прогул пар</t>
   </si>
   <si>
-    <t>добраться до универ путь ехать</t>
-  </si>
-  <si>
     <t>проблем здоровье</t>
   </si>
   <si>
@@ -3397,6 +3385,18 @@
   </si>
   <si>
     <t>сборная спорт</t>
+  </si>
+  <si>
+    <t>перевод бюджет</t>
+  </si>
+  <si>
+    <t>секции разрядов</t>
+  </si>
+  <si>
+    <t>добраться универ путь ехать</t>
+  </si>
+  <si>
+    <t>корпус учиться кампус</t>
   </si>
 </sst>
 </file>
@@ -4247,8 +4247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C249" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251"/>
+    <sheetView tabSelected="1" topLeftCell="C251" zoomScale="119" workbookViewId="0">
+      <selection activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4283,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32">
@@ -4291,7 +4291,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32">
@@ -4302,7 +4302,7 @@
         <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="112">
@@ -4313,7 +4313,7 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="71">
@@ -4324,7 +4324,7 @@
         <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="176">
@@ -4335,7 +4335,7 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="96">
@@ -4346,7 +4346,7 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="32">
@@ -4357,7 +4357,7 @@
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="64">
@@ -4368,7 +4368,7 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4382,7 +4382,7 @@
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="64">
@@ -4393,7 +4393,7 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4421,7 +4421,7 @@
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32">
@@ -4432,7 +4432,7 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="48">
@@ -4443,7 +4443,7 @@
         <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="48">
@@ -4454,7 +4454,7 @@
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="32">
@@ -4465,7 +4465,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="112">
@@ -4476,7 +4476,7 @@
         <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="32">
@@ -4487,7 +4487,7 @@
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="48">
@@ -4498,7 +4498,7 @@
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="48">
@@ -4509,7 +4509,7 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="48">
@@ -4520,7 +4520,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="48">
@@ -4531,7 +4531,7 @@
         <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16">
@@ -4542,7 +4542,7 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="288">
@@ -4553,7 +4553,7 @@
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="32">
@@ -4564,7 +4564,7 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="48">
@@ -4575,7 +4575,7 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16">
@@ -4586,7 +4586,7 @@
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="32">
@@ -4597,7 +4597,7 @@
         <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="64">
@@ -4608,7 +4608,7 @@
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="64">
@@ -4630,7 +4630,7 @@
         <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="61">
@@ -4641,7 +4641,7 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="32">
@@ -4674,7 +4674,7 @@
         <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="128">
@@ -4685,7 +4685,7 @@
         <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="64">
@@ -4696,62 +4696,62 @@
         <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="80">
       <c r="A45" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="80">
       <c r="A46" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="192">
       <c r="A47" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="48">
       <c r="A48" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16">
       <c r="A49" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="48">
@@ -4762,7 +4762,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="32">
@@ -4784,7 +4784,7 @@
         <v>93</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="64">
@@ -4795,7 +4795,7 @@
         <v>95</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="64">
@@ -4806,7 +4806,7 @@
         <v>97</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="64">
@@ -4817,7 +4817,7 @@
         <v>99</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="96">
@@ -4828,7 +4828,7 @@
         <v>101</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="64">
@@ -4839,7 +4839,7 @@
         <v>103</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="48">
@@ -4850,7 +4850,7 @@
         <v>105</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="80">
@@ -4861,7 +4861,7 @@
         <v>107</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="80">
@@ -4872,7 +4872,7 @@
         <v>109</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="112">
@@ -4883,7 +4883,7 @@
         <v>111</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="48">
@@ -4894,7 +4894,7 @@
         <v>113</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="96">
@@ -4916,7 +4916,7 @@
         <v>118</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="48">
@@ -4927,7 +4927,7 @@
         <v>120</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="32">
@@ -4938,7 +4938,7 @@
         <v>122</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="64">
@@ -4949,7 +4949,7 @@
         <v>124</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="48">
@@ -4960,7 +4960,7 @@
         <v>126</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="32">
@@ -4982,7 +4982,7 @@
         <v>131</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="48">
@@ -4993,7 +4993,7 @@
         <v>133</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="48">
@@ -5004,7 +5004,7 @@
         <v>135</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="64">
@@ -5015,7 +5015,7 @@
         <v>137</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="32">
@@ -5026,7 +5026,7 @@
         <v>139</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="48">
@@ -5037,7 +5037,7 @@
         <v>141</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="64">
@@ -5048,7 +5048,7 @@
         <v>143</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16">
@@ -5059,7 +5059,7 @@
         <v>145</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="48">
@@ -5070,161 +5070,161 @@
         <v>147</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>148</v>
+        <v>888</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="48">
       <c r="A79" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="C79" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="38">
       <c r="A80" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18">
       <c r="A81" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="32">
       <c r="A82" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="105">
       <c r="A83" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="26" t="s">
-        <v>165</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="38">
       <c r="A84" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="28" t="s">
-        <v>167</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="60">
       <c r="A85" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="29" t="s">
-        <v>169</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="71">
       <c r="A86" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="30" t="s">
-        <v>171</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="85">
       <c r="A87" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="30" t="s">
-        <v>173</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="113">
       <c r="A88" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="30" t="s">
-        <v>175</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="64">
       <c r="A89" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="32">
       <c r="A90" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="38">
       <c r="A91" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="38">
       <c r="A92" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="18">
@@ -5233,134 +5233,134 @@
     </row>
     <row r="94" spans="1:3" ht="32">
       <c r="A94" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="32">
       <c r="A95" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="48">
       <c r="A96" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="48">
       <c r="A97" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="76">
       <c r="A98" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="48">
       <c r="A99" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="32">
       <c r="A100" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="136">
       <c r="A101" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="32" t="s">
-        <v>200</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="38">
       <c r="A102" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="18">
       <c r="A103" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="32">
       <c r="A104" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>206</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="120">
       <c r="A105" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="B105" s="26" t="s">
-        <v>208</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="18">
@@ -5374,150 +5374,150 @@
     </row>
     <row r="108" spans="1:3" ht="48">
       <c r="A108" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="57">
       <c r="A109" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="95">
       <c r="A110" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="B110" s="30" t="s">
-        <v>213</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="57">
       <c r="A111" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="57">
       <c r="A112" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="61">
       <c r="A113" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B113" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="B113" s="34" t="s">
-        <v>218</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="57">
       <c r="A114" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>221</v>
+        <v>889</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="57">
       <c r="A115" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="57">
       <c r="A116" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="153">
       <c r="A117" s="24" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="38">
       <c r="A118" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="57">
       <c r="A119" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="38">
       <c r="A120" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="57">
       <c r="A121" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="18">
@@ -5530,35 +5530,35 @@
     </row>
     <row r="124" spans="1:3" ht="48">
       <c r="A124" s="24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="38">
       <c r="A125" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="38">
       <c r="A126" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="18">
@@ -5567,156 +5567,156 @@
     </row>
     <row r="128" spans="1:3" ht="32">
       <c r="A128" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="18">
       <c r="A129" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="32">
       <c r="A130" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="19">
       <c r="A131" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="32">
       <c r="A132" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="48">
       <c r="A133" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="34">
       <c r="A134" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B134" s="36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="18">
       <c r="A135" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="18">
       <c r="A136" s="37" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="224">
       <c r="A137" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B138" s="38"/>
       <c r="C138" s="38" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="48">
       <c r="A139" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B139" s="14" t="s">
         <v>128</v>
       </c>
       <c r="C139" s="38" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="64">
       <c r="A140" s="39" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B140" s="14" t="s">
         <v>95</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="80">
       <c r="A141" s="39" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="48">
       <c r="A142" s="40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B142" s="38"/>
       <c r="C142" s="38"/>
@@ -5728,134 +5728,134 @@
     </row>
     <row r="144" spans="1:3" ht="32">
       <c r="A144" s="39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="192">
       <c r="A145" s="39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C145" s="38" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="64">
       <c r="A146" s="39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>103</v>
       </c>
       <c r="C146" s="38" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="41" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B147" s="38"/>
       <c r="C147" s="38"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="39" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C148" s="38" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C149" s="38" t="s">
-        <v>739</v>
+        <v>890</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B150" s="38"/>
       <c r="C150" s="38" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="B151" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="C151" s="38" t="s">
         <v>280</v>
-      </c>
-      <c r="B151" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="C151" s="38" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B152" s="38"/>
       <c r="C152" s="38" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="32">
       <c r="A153" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B153" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="192">
       <c r="A154" s="39" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C154" s="38" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="64">
       <c r="A155" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C155" s="38" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C156" s="38" t="s">
         <v>116</v>
@@ -5863,24 +5863,24 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="B157" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="C157" s="38" t="s">
         <v>292</v>
-      </c>
-      <c r="B157" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="C157" s="38" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="32">
       <c r="A158" s="39" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B158" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C158" s="38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -5890,167 +5890,167 @@
     </row>
     <row r="160" spans="1:3" ht="32">
       <c r="A160" s="39" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="B161" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="C161" s="38" t="s">
         <v>299</v>
-      </c>
-      <c r="B161" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="C161" s="38" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B162" s="38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C162" s="38" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="48">
       <c r="A163" s="39" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B163" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C163" s="38" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="39" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B164" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C164" s="38" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B165" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C165" s="38" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="39" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B166" s="38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C166" s="38" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="39" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B167" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C167" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="B168" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="C168" s="38" t="s">
         <v>313</v>
-      </c>
-      <c r="B168" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="C168" s="38" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="32">
       <c r="A169" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B169" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="C169" s="38" t="s">
         <v>316</v>
-      </c>
-      <c r="B169" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="C169" s="38" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="B170" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="C170" s="38" t="s">
         <v>319</v>
-      </c>
-      <c r="B170" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="C170" s="38" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="B171" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="C171" s="38" t="s">
         <v>322</v>
-      </c>
-      <c r="B171" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="C171" s="38" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="B172" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="C172" s="38" t="s">
         <v>325</v>
-      </c>
-      <c r="B172" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="C172" s="38" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="16">
       <c r="A173" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B173" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="C173" s="38" t="s">
         <v>328</v>
-      </c>
-      <c r="B173" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="C173" s="38" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="32">
       <c r="A174" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B174" s="38" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C174" s="38" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -6060,46 +6060,46 @@
     </row>
     <row r="176" spans="1:3" ht="80">
       <c r="A176" s="39" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C176" s="38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B177" s="38" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C177" s="38" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="64">
       <c r="A178" s="39" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B178" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C178" s="38" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="48">
       <c r="A179" s="39" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B179" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C179" s="38" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -6109,24 +6109,24 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="B181" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="C181" s="38" t="s">
         <v>339</v>
-      </c>
-      <c r="B181" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="C181" s="38" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="B182" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C182" s="38" t="s">
         <v>342</v>
-      </c>
-      <c r="B182" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="C182" s="38" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -6136,20 +6136,20 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B184" s="38"/>
       <c r="C184" s="38"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="B185" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="C185" s="38" t="s">
         <v>346</v>
-      </c>
-      <c r="B185" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="C185" s="38" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -6159,192 +6159,192 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="39" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B187" s="38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C187" s="38" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="39" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="48">
       <c r="A189" s="39" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B189" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C189" s="38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="32">
       <c r="A190" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="C190" s="38" t="s">
         <v>355</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C190" s="38" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="B191" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="C191" s="38" t="s">
         <v>358</v>
-      </c>
-      <c r="B191" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="C191" s="38" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="48">
       <c r="A192" s="39" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C192" s="38" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="48">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="64">
       <c r="A193" s="39" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C193" s="38" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="48">
       <c r="A194" s="39" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C194" s="38" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="16">
       <c r="A195" s="39" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C195" s="38" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="41" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B196" s="38"/>
       <c r="C196" s="38"/>
     </row>
     <row r="197" spans="1:3" ht="64">
       <c r="A197" s="40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B197" s="38"/>
       <c r="C197" s="38"/>
     </row>
     <row r="198" spans="1:3" ht="29">
       <c r="A198" s="43" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B198" s="44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C198" s="60" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="57">
       <c r="A199" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="B199" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="C199" s="45" t="s">
         <v>372</v>
-      </c>
-      <c r="B199" s="46" t="s">
-        <v>373</v>
-      </c>
-      <c r="C199" s="45" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="29">
       <c r="A200" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="B200" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="C200" s="45" t="s">
         <v>375</v>
-      </c>
-      <c r="B200" s="47" t="s">
-        <v>376</v>
-      </c>
-      <c r="C200" s="45" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="43">
       <c r="A201" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="B201" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="C201" s="45" t="s">
         <v>378</v>
-      </c>
-      <c r="B201" s="46" t="s">
-        <v>379</v>
-      </c>
-      <c r="C201" s="45" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="43">
       <c r="A202" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="B202" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C202" s="45" t="s">
         <v>381</v>
-      </c>
-      <c r="B202" s="46" t="s">
-        <v>382</v>
-      </c>
-      <c r="C202" s="45" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="57">
       <c r="A203" s="43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B203" s="46" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C203" s="60" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="169">
       <c r="A204" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="B204" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C204" s="45" t="s">
         <v>386</v>
-      </c>
-      <c r="B204" s="46" t="s">
-        <v>387</v>
-      </c>
-      <c r="C204" s="45" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="16">
@@ -6352,1404 +6352,1404 @@
     </row>
     <row r="206" spans="1:3" ht="43">
       <c r="A206" s="43" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B206" s="48" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C206" s="60" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="71">
       <c r="A207" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="B207" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="C207" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="B207" s="46" t="s">
+    </row>
+    <row r="208" spans="1:3" ht="71">
+      <c r="A208" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="C207" s="45" t="s">
+      <c r="B208" s="46" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="57">
-      <c r="A208" s="43" t="s">
-        <v>394</v>
-      </c>
-      <c r="B208" s="46" t="s">
-        <v>395</v>
-      </c>
       <c r="C208" s="60" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="43">
       <c r="A209" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="B209" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="C209" s="45" t="s">
         <v>396</v>
-      </c>
-      <c r="B209" s="49" t="s">
-        <v>397</v>
-      </c>
-      <c r="C209" s="45" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="29">
       <c r="A210" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="B210" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="C210" s="45" t="s">
         <v>399</v>
-      </c>
-      <c r="B210" s="46" t="s">
-        <v>400</v>
-      </c>
-      <c r="C210" s="45" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="43">
       <c r="A211" s="43" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B211" s="46" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C211" s="60" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="17">
       <c r="A212" s="43" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B212" s="46" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="85">
       <c r="A213" s="43" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C213" s="60" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="136">
       <c r="A214" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="B214" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="C214" s="45" t="s">
         <v>408</v>
-      </c>
-      <c r="B214" s="50" t="s">
-        <v>409</v>
-      </c>
-      <c r="C214" s="45" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="34">
       <c r="A215" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="B215" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="C215" s="45" t="s">
         <v>411</v>
-      </c>
-      <c r="B215" s="49" t="s">
-        <v>412</v>
-      </c>
-      <c r="C215" s="45" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="17">
       <c r="A216" s="43" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B216" s="46" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="43">
       <c r="A217" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="B217" s="49" t="s">
+        <v>414</v>
+      </c>
+      <c r="C217" s="45" t="s">
         <v>415</v>
-      </c>
-      <c r="B217" s="49" t="s">
-        <v>416</v>
-      </c>
-      <c r="C217" s="45" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="202">
       <c r="A218" s="52" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B218" s="49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C218" s="60" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="43">
       <c r="A219" s="43" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B219" s="49" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C219" s="60" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="43">
       <c r="A220" s="43" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B220" s="48" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C220" s="60" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="60">
       <c r="A221" s="43" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B221" s="49" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C221" s="60" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="43">
       <c r="A222" s="43" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B222" s="48" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C222" s="60" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="43">
       <c r="A223" s="43" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B223" s="49" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C223" s="60" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="29">
       <c r="A224" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="B224" s="49" t="s">
+        <v>429</v>
+      </c>
+      <c r="C224" s="45" t="s">
         <v>430</v>
-      </c>
-      <c r="B224" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="C224" s="45" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="34">
       <c r="A225" s="43" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B225" s="46" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="43">
       <c r="A226" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="B226" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="C226" s="45" t="s">
         <v>434</v>
-      </c>
-      <c r="B226" s="48" t="s">
-        <v>435</v>
-      </c>
-      <c r="C226" s="45" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="57">
       <c r="A227" s="53" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B227" s="54" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C227" s="61" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="57">
       <c r="A228" s="53" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B228" s="53" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C228" s="61" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="57">
       <c r="A229" s="53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B229" s="53" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C229" s="61" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="133">
       <c r="A230" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="B230" s="53" t="s">
+        <v>442</v>
+      </c>
+      <c r="C230" s="53" t="s">
         <v>443</v>
-      </c>
-      <c r="B230" s="53" t="s">
-        <v>444</v>
-      </c>
-      <c r="C230" s="53" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="152">
       <c r="A231" s="53" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B231" s="53" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C231" s="61" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="190">
       <c r="A232" s="53" t="s">
+        <v>445</v>
+      </c>
+      <c r="B232" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="C232" s="53" t="s">
         <v>447</v>
-      </c>
-      <c r="B232" s="53" t="s">
-        <v>448</v>
-      </c>
-      <c r="C232" s="53" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="95">
       <c r="A233" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="B233" s="53" t="s">
+        <v>449</v>
+      </c>
+      <c r="C233" s="53" t="s">
         <v>450</v>
-      </c>
-      <c r="B233" s="53" t="s">
-        <v>451</v>
-      </c>
-      <c r="C233" s="53" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="171">
       <c r="A234" s="53" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B234" s="53" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C234" s="61" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="114">
       <c r="A235" s="53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B235" s="53" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C235" s="53" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="190">
       <c r="A236" s="53" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B236" s="53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C236" s="61" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="76">
       <c r="A237" s="53" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B237" s="55" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C237" s="61" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="114">
       <c r="A238" s="53" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B238" s="53" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C238" s="61" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="133">
       <c r="A239" s="53" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B239" s="53" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C239" s="61" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="190">
       <c r="A240" s="53" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B240" s="53" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C240" s="61" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="114">
       <c r="A241" s="53" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B241" s="53" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C241" s="61" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="95">
       <c r="A242" s="53" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B242" s="53" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C242" s="61" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="57">
       <c r="A243" s="53" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B243" s="55" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C243" s="61" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="76">
       <c r="A244" s="53" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B244" s="53" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C244" s="61" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="38">
       <c r="A245" s="53" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B245" s="53" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C245" s="61" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="76">
       <c r="A246" s="53" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B246" s="55" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C246" s="61" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="57">
       <c r="A247" s="53" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B247" s="53" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C247" s="61" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="228">
       <c r="A248" s="53" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B248" s="53" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C248" s="53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="114">
       <c r="A249" s="53" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B249" s="53" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C249" s="53" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="114">
       <c r="A250" s="53" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B250" s="53" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C250" s="53" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="95">
       <c r="A251" s="53" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B251" s="53" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C251" s="53" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="38">
       <c r="A252" s="53" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B252" s="53" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C252" s="53" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="133">
       <c r="A253" s="53" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B253" s="53" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C253" s="53" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="95">
       <c r="A254" s="53" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B254" s="53" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C254" s="53" t="s">
-        <v>493</v>
+        <v>891</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="38">
       <c r="A255" s="53" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B255" s="53" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C255" s="53" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="171">
       <c r="A256" s="53" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B256" s="53" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C256" s="61" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="114">
       <c r="A257" s="53" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B257" s="53" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C257" s="53" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="209">
       <c r="A258" s="53" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B258" s="53" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C258" s="53" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="114">
       <c r="A259" s="53" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B259" s="53" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C259" s="53" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="114">
       <c r="A260" s="53" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B260" s="53" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C260" s="53" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="190">
       <c r="A261" s="53" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B261" s="53" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C261" s="53" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="114">
       <c r="A262" s="53" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B262" s="53" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C262" s="53" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="228">
       <c r="A263" s="53" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B263" s="53" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C263" s="53" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="95">
       <c r="A264" s="53" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B264" s="53" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C264" s="61" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="114">
       <c r="A265" s="53" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B265" s="53" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C265" s="53" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="76">
       <c r="A266" s="53" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B266" s="53" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C266" s="53" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="114">
       <c r="A267" s="53" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B267" s="53" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C267" s="53" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="57">
       <c r="A268" s="53" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B268" s="53" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C268" s="61" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="95">
       <c r="A269" s="53" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B269" s="53" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C269" s="53" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="76">
       <c r="A270" s="53" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B270" s="53" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C270" s="53" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="95">
       <c r="A271" s="53" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B271" s="53" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C271" s="53" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="95">
       <c r="A272" s="53" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B272" s="53" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C272" s="53" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="152">
       <c r="A273" s="53" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B273" s="53" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C273" s="61" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="114">
       <c r="A274" s="53" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B274" s="53" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C274" s="53" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="76">
       <c r="A275" s="53" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B275" s="55" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C275" s="53" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="57">
       <c r="A276" s="53" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B276" s="56" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C276" s="53" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="57">
       <c r="A277" s="53" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B277" s="57" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C277" s="61" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="57">
       <c r="A278" s="53" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B278" s="53" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C278" s="53" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="114">
       <c r="A279" s="53" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B279" s="55" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C279" s="53" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="112">
       <c r="A280" s="18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B280" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C280" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="192">
       <c r="A281" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C281" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="409.6">
       <c r="A282" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C282" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="96">
       <c r="A283" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C283" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="80">
       <c r="A284" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C284" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="80">
       <c r="A285" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C285" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="96">
       <c r="A286" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C286" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="144">
       <c r="A287" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C287" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="80">
       <c r="A288" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C288" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="32">
       <c r="A289" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C289" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="96">
       <c r="A290" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C290" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="176">
       <c r="A291" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C291" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="365">
       <c r="A292" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C292" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="112">
       <c r="A293" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C293" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="409.6">
       <c r="A294" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C294" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="224">
       <c r="A295" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B295" s="58" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C295" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="288">
       <c r="A296" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C296" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="96">
       <c r="A297" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C297" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="16">
       <c r="A298" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C298" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="32">
       <c r="A299" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C299" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="32">
       <c r="A300" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C300" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="80">
       <c r="A301" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C301" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B302" s="13"/>
     </row>
     <row r="303" spans="1:3" ht="48">
       <c r="A303" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C303" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="208">
       <c r="A304" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C304" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="80">
       <c r="A305" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C305" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="48">
       <c r="A306" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C306" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="176">
       <c r="A307" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C307" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="192">
       <c r="A308" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C308" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="32">
       <c r="A309" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C309" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="144">
       <c r="A310" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C310" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="144">
       <c r="A311" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C311" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="176">
       <c r="A312" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C312" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="64">
       <c r="A313" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C313" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="80">
       <c r="A314" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C314" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="64">
       <c r="A315" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C315" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="32">
       <c r="A316" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C316" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="16">
       <c r="A317" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B317" s="59" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="176">
       <c r="A318" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C318" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="208">
       <c r="A319" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C319" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="112">
       <c r="A320" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C320" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="365">
       <c r="A321" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C321" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="272">
       <c r="A322" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C322" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="96">
       <c r="A323" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C323" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="176">
       <c r="A324" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C324" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="32">
       <c r="A325" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C325" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="48">
       <c r="A326" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C326" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="176">
       <c r="A327" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C327" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="112">
       <c r="A328" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C328" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="80">
       <c r="A329" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C329" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="176">
       <c r="A330" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C330" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="32">
       <c r="A331" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C331" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="64">
       <c r="A332" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C332" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="160">
       <c r="A333" s="2" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C333" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="224">
       <c r="A334" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C334" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/qa.xlsx
+++ b/qa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhozh/Desktop/projects/python/bots/pelican_helper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272FF5A8-4132-154D-989B-BA700CFE1473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56BA6EE-0CDD-CC44-89C5-B7EE2A1359FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="889">
   <si>
     <t>Вопрос</t>
   </si>
@@ -359,9 +359,6 @@
   </si>
   <si>
     <t xml:space="preserve">К сожалению одного общего приложения с картой для ориентирования в корпусах у нас нет. Но спасибо за идею! Мы обязательно подумаем над созданием такого приложения. А может быть его сможешь создать ты?) Сейчас у нас есть несколько приложений: Мой СПбПУ (там ты найдешь расписание, сможешь делать заметки, а также увидишь карту кампуса), PolyNavi (в приложении есть поиск пути между аудиториями главного здания и корпусами Политеха, а также расписание офлайн). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">какие направления военная кафедра </t>
   </si>
   <si>
     <t>длительность военная кафедра</t>
@@ -1292,9 +1289,6 @@
     <t>Какая нужна справка?</t>
   </si>
   <si>
-    <t>какая справка</t>
-  </si>
-  <si>
     <t>Сколько стоит общага?</t>
   </si>
   <si>
@@ -1368,9 +1362,6 @@
   </si>
   <si>
     <t>Вообще первая пара начинается в 8:00, но по расписанию твоя первая пара может начаться и в 10:00, и даже в 12:00:)</t>
-  </si>
-  <si>
-    <t>во сколько пары</t>
   </si>
   <si>
     <t>Где находятся корпуса где будут занятия?</t>
@@ -1454,9 +1445,6 @@
   </si>
   <si>
     <t xml:space="preserve">Он нужен для твоей персональной идентификации как студента. Также студенческий позволяет пользоваться рядом льгот, предоставляемых различными организациями. </t>
-  </si>
-  <si>
-    <t>студенческий для чего</t>
   </si>
   <si>
     <t xml:space="preserve"> Что нужно купить к началу учебы? (нужно много тетрадей и ручек?</t>
@@ -2748,18 +2736,6 @@
     <t>баллы набрать поступ бюджет</t>
   </si>
   <si>
-    <t>предмет егэ какие экзамен</t>
-  </si>
-  <si>
-    <t>бюджетн мест количеств сколько</t>
-  </si>
-  <si>
-    <t>стои сколько обуч</t>
-  </si>
-  <si>
-    <t>документ поступ какие</t>
-  </si>
-  <si>
     <t>подать документ почт</t>
   </si>
   <si>
@@ -2790,12 +2766,6 @@
     <t>предмет упор</t>
   </si>
   <si>
-    <t>когда сессия дат</t>
-  </si>
-  <si>
-    <t>сколько каникул</t>
-  </si>
-  <si>
     <t>миграционн учет</t>
   </si>
   <si>
@@ -2814,9 +2784,6 @@
     <t>сколько общежит общаг</t>
   </si>
   <si>
-    <t>общежит без мест бюджет</t>
-  </si>
-  <si>
     <t>общежит политеха МСГ межвузовский студенческий городок</t>
   </si>
   <si>
@@ -2826,9 +2793,6 @@
     <t xml:space="preserve">смена общежит </t>
   </si>
   <si>
-    <t>функц адаптер зачем</t>
-  </si>
-  <si>
     <t>купить сесс</t>
   </si>
   <si>
@@ -2877,9 +2841,6 @@
     <t>спец группа физра физкультура</t>
   </si>
   <si>
-    <t>опозд час пик препод</t>
-  </si>
-  <si>
     <t>отлич экзамен диф зачёт зачет</t>
   </si>
   <si>
@@ -2913,9 +2874,6 @@
     <t>лекц обязательно</t>
   </si>
   <si>
-    <t>когда мед осмотр</t>
-  </si>
-  <si>
     <t>нест мед справк</t>
   </si>
   <si>
@@ -2976,12 +2934,6 @@
     <t>снять квартир</t>
   </si>
   <si>
-    <t>билет от универ театр кино музе</t>
-  </si>
-  <si>
-    <t>начал пар учеб</t>
-  </si>
-  <si>
     <t xml:space="preserve">международ сотрудничеств </t>
   </si>
   <si>
@@ -3000,9 +2952,6 @@
     <t>студенческ медиа радио журнал</t>
   </si>
   <si>
-    <t>Общежит фотограф нужно</t>
-  </si>
-  <si>
     <t>общежит предмет быт</t>
   </si>
   <si>
@@ -3057,9 +3006,6 @@
     <t>парковк машин</t>
   </si>
   <si>
-    <t>узнат лайф хак</t>
-  </si>
-  <si>
     <t>налог вычет</t>
   </si>
   <si>
@@ -3129,9 +3075,6 @@
     <t>ходить пары</t>
   </si>
   <si>
-    <t>поесть есть дешев</t>
-  </si>
-  <si>
     <t>следить</t>
   </si>
   <si>
@@ -3162,9 +3105,6 @@
     <t>подход преподавателю</t>
   </si>
   <si>
-    <t>сдать перв сесс</t>
-  </si>
-  <si>
     <t>онлайн курсы</t>
   </si>
   <si>
@@ -3225,24 +3165,12 @@
     <t>аудитории корпусе</t>
   </si>
   <si>
-    <t>такое профсоюз профком</t>
-  </si>
-  <si>
-    <t>доп англ универ</t>
-  </si>
-  <si>
     <t>шавуха Политех шаурма</t>
   </si>
   <si>
     <t>плат обуч</t>
   </si>
   <si>
-    <t>справка обучен</t>
-  </si>
-  <si>
-    <t>староста профорг разница отлич зачем</t>
-  </si>
-  <si>
     <t>пеликан символ</t>
   </si>
   <si>
@@ -3267,15 +3195,9 @@
     <t>подход преподав</t>
   </si>
   <si>
-    <t>сда сесс</t>
-  </si>
-  <si>
     <t>учёба обмен учеба границ</t>
   </si>
   <si>
-    <t>группа какая</t>
-  </si>
-  <si>
     <t>корпус карта первый</t>
   </si>
   <si>
@@ -3336,9 +3258,6 @@
     <t>приложение телефон приложуха карта</t>
   </si>
   <si>
-    <t>поступ</t>
-  </si>
-  <si>
     <t>корпус</t>
   </si>
   <si>
@@ -3375,9 +3294,6 @@
     <t>активности комьюнити люди близкие схожие духу</t>
   </si>
   <si>
-    <t>опозда кому можн</t>
-  </si>
-  <si>
     <t>Профсоюз отвечает</t>
   </si>
   <si>
@@ -3397,6 +3313,81 @@
   </si>
   <si>
     <t>корпус учиться кампус</t>
+  </si>
+  <si>
+    <t>бюждетных мест</t>
+  </si>
+  <si>
+    <t>билет универ театр кино музе</t>
+  </si>
+  <si>
+    <t>каникул</t>
+  </si>
+  <si>
+    <t>функц адаптер</t>
+  </si>
+  <si>
+    <t>староста профорг разница отлич</t>
+  </si>
+  <si>
+    <t>поступил</t>
+  </si>
+  <si>
+    <t>стоит обучение</t>
+  </si>
+  <si>
+    <t>документ поступ</t>
+  </si>
+  <si>
+    <t>поесть кушать дешево</t>
+  </si>
+  <si>
+    <t>сессия даты</t>
+  </si>
+  <si>
+    <t>сдать сессию</t>
+  </si>
+  <si>
+    <t>общежит мест бюджет</t>
+  </si>
+  <si>
+    <t>опозда можно</t>
+  </si>
+  <si>
+    <t>опозда препод</t>
+  </si>
+  <si>
+    <t>справка общежитие</t>
+  </si>
+  <si>
+    <t>справка обучение</t>
+  </si>
+  <si>
+    <t>начинаются пары</t>
+  </si>
+  <si>
+    <t>студенческий</t>
+  </si>
+  <si>
+    <t>начало учебы занятий</t>
+  </si>
+  <si>
+    <t>англ универ</t>
+  </si>
+  <si>
+    <t>Общежитие фотограф общаг</t>
+  </si>
+  <si>
+    <t>узнат лайфхак</t>
+  </si>
+  <si>
+    <t>сдать первую сессию</t>
+  </si>
+  <si>
+    <t>предмет егэ экзамен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">направления военная кафедра </t>
   </si>
 </sst>
 </file>
@@ -4247,8 +4238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C251" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C254" sqref="C254"/>
+    <sheetView tabSelected="1" topLeftCell="C114" zoomScale="119" workbookViewId="0">
+      <selection activeCell="C119" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4283,7 +4274,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>840</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32">
@@ -4291,7 +4282,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>867</v>
+        <v>841</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32">
@@ -4299,10 +4290,10 @@
         <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="112">
@@ -4313,7 +4304,7 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="71">
@@ -4321,10 +4312,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="176">
@@ -4335,7 +4326,7 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="96">
@@ -4346,7 +4337,7 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="32">
@@ -4357,7 +4348,7 @@
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="64">
@@ -4368,7 +4359,7 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4382,7 +4373,7 @@
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="64">
@@ -4393,7 +4384,7 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4421,7 +4412,7 @@
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32">
@@ -4432,7 +4423,7 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>868</v>
+        <v>842</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="48">
@@ -4440,10 +4431,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>869</v>
+        <v>843</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="48">
@@ -4454,7 +4445,7 @@
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="32">
@@ -4465,7 +4456,7 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="112">
@@ -4476,7 +4467,7 @@
         <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>870</v>
+        <v>844</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="32">
@@ -4487,7 +4478,7 @@
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="48">
@@ -4498,7 +4489,7 @@
         <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="48">
@@ -4509,7 +4500,7 @@
         <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="48">
@@ -4520,7 +4511,7 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>675</v>
+        <v>887</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="48">
@@ -4531,7 +4522,7 @@
         <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>676</v>
+        <v>864</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16">
@@ -4542,7 +4533,7 @@
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>677</v>
+        <v>870</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="288">
@@ -4553,7 +4544,7 @@
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>678</v>
+        <v>871</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="32">
@@ -4564,7 +4555,7 @@
         <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="48">
@@ -4575,7 +4566,7 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16">
@@ -4586,7 +4577,7 @@
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>886</v>
+        <v>858</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="32">
@@ -4597,7 +4588,7 @@
         <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="64">
@@ -4608,7 +4599,7 @@
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="64">
@@ -4627,10 +4618,10 @@
         <v>33</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>844</v>
+        <v>820</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="61">
@@ -4641,7 +4632,7 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>845</v>
+        <v>821</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="32">
@@ -4652,7 +4643,7 @@
         <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>888</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="48">
@@ -4663,7 +4654,7 @@
         <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="128">
@@ -4674,7 +4665,7 @@
         <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>846</v>
+        <v>822</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="128">
@@ -4685,7 +4676,7 @@
         <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="64">
@@ -4696,535 +4687,535 @@
         <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="80">
       <c r="A45" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="80">
       <c r="A46" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="192">
       <c r="A47" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="48">
       <c r="A48" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16">
       <c r="A49" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="48">
       <c r="A50" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>88</v>
-      </c>
       <c r="C50" s="15" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="32">
       <c r="A51" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="32">
       <c r="A52" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>93</v>
-      </c>
       <c r="C52" s="13" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="64">
       <c r="A53" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>95</v>
-      </c>
       <c r="C53" s="13" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="64">
       <c r="A54" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="C54" s="15" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="64">
       <c r="A55" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="19" t="s">
-        <v>99</v>
-      </c>
       <c r="C55" s="15" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="96">
       <c r="A56" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>101</v>
-      </c>
       <c r="C56" s="15" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="64">
       <c r="A57" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="C57" s="15" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="48">
       <c r="A58" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="C58" s="15" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="80">
       <c r="A59" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>107</v>
-      </c>
       <c r="C59" s="15" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="80">
       <c r="A60" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>109</v>
-      </c>
       <c r="C60" s="15" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="112">
       <c r="A61" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B61" s="21" t="s">
-        <v>111</v>
-      </c>
       <c r="C61" s="15" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="48">
       <c r="A62" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="17" t="s">
-        <v>113</v>
-      </c>
       <c r="C62" s="15" t="s">
-        <v>802</v>
+        <v>872</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="96">
       <c r="A63" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="C63" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16">
       <c r="A64" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B64" s="17" t="s">
-        <v>118</v>
-      </c>
       <c r="C64" s="15" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="48">
       <c r="A65" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="17" t="s">
-        <v>120</v>
-      </c>
       <c r="C65" s="15" t="s">
-        <v>847</v>
+        <v>823</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="32">
       <c r="A66" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="17" t="s">
-        <v>122</v>
-      </c>
       <c r="C66" s="15" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="64">
       <c r="A67" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="17" t="s">
-        <v>124</v>
-      </c>
       <c r="C67" s="15" t="s">
-        <v>689</v>
+        <v>873</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="48">
       <c r="A68" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="17" t="s">
-        <v>126</v>
-      </c>
       <c r="C68" s="15" t="s">
-        <v>690</v>
+        <v>866</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="32">
       <c r="A69" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="C69" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="48">
       <c r="A70" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="17" t="s">
-        <v>131</v>
-      </c>
       <c r="C70" s="15" t="s">
-        <v>848</v>
+        <v>874</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="48">
       <c r="A71" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="C71" s="15" t="s">
-        <v>885</v>
+        <v>857</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="48">
       <c r="A72" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B72" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="C72" s="15" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="64">
       <c r="A73" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>137</v>
-      </c>
       <c r="C73" s="15" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="32">
       <c r="A74" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="B74" s="23" t="s">
-        <v>139</v>
-      </c>
       <c r="C74" s="15" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="48">
       <c r="A75" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B75" s="17" t="s">
-        <v>141</v>
-      </c>
       <c r="C75" s="15" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="64">
       <c r="A76" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B76" s="17" t="s">
-        <v>143</v>
-      </c>
       <c r="C76" s="15" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16">
       <c r="A77" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B77" s="17" t="s">
-        <v>145</v>
-      </c>
       <c r="C77" s="15" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="48">
       <c r="A78" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B78" s="17" t="s">
-        <v>147</v>
-      </c>
       <c r="C78" s="15" t="s">
-        <v>888</v>
+        <v>860</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="48">
       <c r="A79" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="C79" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="38">
       <c r="A80" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18">
       <c r="A81" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="32">
       <c r="A82" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="105">
       <c r="A83" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="26" t="s">
-        <v>164</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="38">
       <c r="A84" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="28" t="s">
-        <v>166</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>697</v>
+        <v>875</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="60">
       <c r="A85" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="29" t="s">
-        <v>168</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="71">
       <c r="A86" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="30" t="s">
-        <v>170</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="85">
       <c r="A87" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="30" t="s">
-        <v>172</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="113">
       <c r="A88" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="30" t="s">
-        <v>174</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="64">
       <c r="A89" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>701</v>
+        <v>867</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="32">
       <c r="A90" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>837</v>
+        <v>815</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="38">
       <c r="A91" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="38">
       <c r="A92" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="18">
@@ -5233,134 +5224,134 @@
     </row>
     <row r="94" spans="1:3" ht="32">
       <c r="A94" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="32">
       <c r="A95" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="48">
       <c r="A96" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>849</v>
+        <v>824</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="48">
       <c r="A97" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="76">
       <c r="A98" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="48">
       <c r="A99" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="32">
       <c r="A100" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="136">
       <c r="A101" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="B101" s="32" t="s">
-        <v>199</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="38">
       <c r="A102" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="18">
       <c r="A103" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="32">
       <c r="A104" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="120">
       <c r="A105" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="26" t="s">
-        <v>207</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="18">
@@ -5374,150 +5365,150 @@
     </row>
     <row r="108" spans="1:3" ht="48">
       <c r="A108" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="57">
       <c r="A109" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="95">
       <c r="A110" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="B110" s="30" t="s">
-        <v>212</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="57">
       <c r="A111" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="57">
       <c r="A112" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="61">
       <c r="A113" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="B113" s="34" t="s">
-        <v>217</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="57">
       <c r="A114" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>889</v>
+        <v>861</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="57">
       <c r="A115" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="C115" s="2" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="57">
       <c r="A116" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>718</v>
+        <v>877</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="153">
       <c r="A117" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B117" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="B117" s="35" t="s">
-        <v>225</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="38">
       <c r="A118" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="57">
       <c r="A119" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="38">
       <c r="A120" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="57">
       <c r="A121" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="18">
@@ -5530,35 +5521,35 @@
     </row>
     <row r="124" spans="1:3" ht="48">
       <c r="A124" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="38">
       <c r="A125" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="38">
       <c r="A126" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="18">
@@ -5567,156 +5558,156 @@
     </row>
     <row r="128" spans="1:3" ht="32">
       <c r="A128" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="18">
       <c r="A129" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="32">
       <c r="A130" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>863</v>
+        <v>837</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="19">
       <c r="A131" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="32">
       <c r="A132" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="48">
       <c r="A133" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="34">
       <c r="A134" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B134" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="B134" s="36" t="s">
-        <v>254</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="18">
       <c r="A135" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="18">
       <c r="A136" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="224">
       <c r="A137" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B137" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B137" s="17" t="s">
-        <v>259</v>
-      </c>
       <c r="C137" s="3" t="s">
-        <v>861</v>
+        <v>835</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B138" s="38"/>
       <c r="C138" s="38" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="48">
       <c r="A139" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C139" s="38" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="64">
       <c r="A140" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>862</v>
+        <v>836</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="80">
       <c r="A141" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="B141" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="B141" s="14" t="s">
-        <v>265</v>
-      </c>
       <c r="C141" s="17" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="48">
       <c r="A142" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B142" s="38"/>
       <c r="C142" s="38"/>
@@ -5728,159 +5719,159 @@
     </row>
     <row r="144" spans="1:3" ht="32">
       <c r="A144" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="B144" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B144" s="14" t="s">
-        <v>268</v>
-      </c>
       <c r="C144" s="38" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="192">
       <c r="A145" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="B145" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B145" s="17" t="s">
-        <v>270</v>
-      </c>
       <c r="C145" s="38" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="64">
       <c r="A146" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C146" s="38" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B147" s="38"/>
       <c r="C147" s="38"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="39" t="s">
+        <v>272</v>
+      </c>
+      <c r="B148" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="B148" s="38" t="s">
-        <v>274</v>
-      </c>
       <c r="C148" s="38" t="s">
-        <v>854</v>
+        <v>828</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="B149" s="38" t="s">
-        <v>276</v>
-      </c>
       <c r="C149" s="38" t="s">
-        <v>890</v>
+        <v>862</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B150" s="38"/>
       <c r="C150" s="38" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B151" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="B151" s="38" t="s">
+      <c r="C151" s="38" t="s">
         <v>279</v>
-      </c>
-      <c r="C151" s="38" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B152" s="38"/>
       <c r="C152" s="38" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="32">
       <c r="A153" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B153" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="B153" s="38" t="s">
-        <v>283</v>
-      </c>
       <c r="C153" s="38" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="192">
       <c r="A154" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="B154" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="B154" s="17" t="s">
-        <v>286</v>
-      </c>
       <c r="C154" s="38" t="s">
-        <v>839</v>
+        <v>868</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="64">
       <c r="A155" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C155" s="38" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="B156" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="B156" s="38" t="s">
-        <v>289</v>
-      </c>
       <c r="C156" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B157" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="B157" s="38" t="s">
+      <c r="C157" s="38" t="s">
         <v>291</v>
-      </c>
-      <c r="C157" s="38" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="32">
       <c r="A158" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C158" s="38" t="s">
         <v>293</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C158" s="38" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -5890,167 +5881,167 @@
     </row>
     <row r="160" spans="1:3" ht="32">
       <c r="A160" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="B160" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="B160" s="14" t="s">
-        <v>296</v>
-      </c>
       <c r="C160" s="38" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="B161" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="B161" s="38" t="s">
+      <c r="C161" s="38" t="s">
         <v>298</v>
-      </c>
-      <c r="C161" s="38" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="B162" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="B162" s="38" t="s">
-        <v>301</v>
-      </c>
       <c r="C162" s="38" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="48">
       <c r="A163" s="39" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C163" s="38" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B164" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C164" s="38" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="B165" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="B165" s="38" t="s">
-        <v>305</v>
-      </c>
       <c r="C165" s="38" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="B166" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="B166" s="38" t="s">
-        <v>308</v>
-      </c>
       <c r="C166" s="38" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B167" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="C167" s="38" t="s">
         <v>309</v>
-      </c>
-      <c r="B167" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="C167" s="38" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="B168" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="B168" s="38" t="s">
+      <c r="C168" s="38" t="s">
         <v>312</v>
-      </c>
-      <c r="C168" s="38" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="32">
       <c r="A169" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B169" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="B169" s="38" t="s">
+      <c r="C169" s="38" t="s">
         <v>315</v>
-      </c>
-      <c r="C169" s="38" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="B170" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="B170" s="38" t="s">
+      <c r="C170" s="38" t="s">
         <v>318</v>
-      </c>
-      <c r="C170" s="38" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="B171" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="B171" s="38" t="s">
+      <c r="C171" s="38" t="s">
         <v>321</v>
-      </c>
-      <c r="C171" s="38" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="B172" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="B172" s="38" t="s">
+      <c r="C172" s="38" t="s">
         <v>324</v>
-      </c>
-      <c r="C172" s="38" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="16">
       <c r="A173" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B173" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="B173" s="38" t="s">
+      <c r="C173" s="38" t="s">
         <v>327</v>
-      </c>
-      <c r="C173" s="38" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="32">
       <c r="A174" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B174" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="B174" s="38" t="s">
-        <v>330</v>
-      </c>
       <c r="C174" s="38" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -6060,46 +6051,46 @@
     </row>
     <row r="176" spans="1:3" ht="80">
       <c r="A176" s="39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B176" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C176" s="38" t="s">
-        <v>332</v>
+        <v>878</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="39" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B177" s="38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C177" s="38" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="64">
       <c r="A178" s="39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B178" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C178" s="38" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="48">
       <c r="A179" s="39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C179" s="38" t="s">
-        <v>838</v>
+        <v>879</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -6109,24 +6100,24 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="B181" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C181" s="38" t="s">
         <v>337</v>
-      </c>
-      <c r="B181" s="38" t="s">
-        <v>338</v>
-      </c>
-      <c r="C181" s="38" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="B182" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="C182" s="38" t="s">
         <v>340</v>
-      </c>
-      <c r="B182" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="C182" s="38" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -6136,20 +6127,20 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B184" s="38"/>
       <c r="C184" s="38"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="B185" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="C185" s="38" t="s">
         <v>344</v>
-      </c>
-      <c r="B185" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="C185" s="38" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -6159,192 +6150,192 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="39" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B187" s="38" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C187" s="38" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="39" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="48">
       <c r="A189" s="39" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C189" s="38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="32">
       <c r="A190" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C190" s="38" t="s">
         <v>353</v>
-      </c>
-      <c r="B190" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="C190" s="38" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="39" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B191" s="38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C191" s="38" t="s">
-        <v>358</v>
+        <v>880</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="48">
       <c r="A192" s="39" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C192" s="38" t="s">
-        <v>872</v>
+        <v>845</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="64">
       <c r="A193" s="39" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C193" s="38" t="s">
-        <v>873</v>
+        <v>846</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="48">
       <c r="A194" s="39" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C194" s="38" t="s">
-        <v>874</v>
+        <v>847</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="16">
       <c r="A195" s="39" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C195" s="38" t="s">
-        <v>856</v>
+        <v>830</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="41" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B196" s="38"/>
       <c r="C196" s="38"/>
     </row>
     <row r="197" spans="1:3" ht="64">
       <c r="A197" s="40" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B197" s="38"/>
       <c r="C197" s="38"/>
     </row>
     <row r="198" spans="1:3" ht="29">
       <c r="A198" s="43" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B198" s="44" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C198" s="60" t="s">
-        <v>855</v>
+        <v>829</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="57">
       <c r="A199" s="43" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B199" s="46" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C199" s="45" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="29">
       <c r="A200" s="43" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B200" s="47" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C200" s="45" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="43">
       <c r="A201" s="43" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B201" s="46" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C201" s="45" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="43">
       <c r="A202" s="43" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B202" s="46" t="s">
-        <v>380</v>
-      </c>
-      <c r="C202" s="45" t="s">
-        <v>381</v>
+        <v>377</v>
+      </c>
+      <c r="C202" s="60" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="57">
       <c r="A203" s="43" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B203" s="46" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C203" s="60" t="s">
-        <v>875</v>
+        <v>848</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="169">
       <c r="A204" s="43" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B204" s="46" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C204" s="45" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="16">
@@ -6352,1404 +6343,1404 @@
     </row>
     <row r="206" spans="1:3" ht="43">
       <c r="A206" s="43" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B206" s="48" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C206" s="60" t="s">
-        <v>864</v>
+        <v>838</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="71">
       <c r="A207" s="43" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B207" s="46" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C207" s="45" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="71">
       <c r="A208" s="43" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B208" s="46" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C208" s="60" t="s">
-        <v>865</v>
+        <v>839</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="43">
       <c r="A209" s="43" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B209" s="49" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C209" s="45" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="29">
       <c r="A210" s="43" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B210" s="46" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C210" s="45" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="43">
       <c r="A211" s="43" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B211" s="46" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C211" s="60" t="s">
-        <v>866</v>
+        <v>840</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="17">
       <c r="A212" s="43" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B212" s="46" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="85">
       <c r="A213" s="43" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C213" s="60" t="s">
-        <v>857</v>
+        <v>831</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="136">
       <c r="A214" s="43" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B214" s="50" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C214" s="45" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="34">
       <c r="A215" s="43" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B215" s="49" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C215" s="45" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="17">
       <c r="A216" s="43" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B216" s="46" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="43">
       <c r="A217" s="51" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B217" s="49" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C217" s="45" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="202">
       <c r="A218" s="52" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B218" s="49" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C218" s="60" t="s">
-        <v>841</v>
+        <v>817</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="43">
       <c r="A219" s="43" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B219" s="49" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C219" s="60" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="43">
       <c r="A220" s="43" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B220" s="48" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C220" s="60" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="60">
       <c r="A221" s="43" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B221" s="49" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C221" s="60" t="s">
-        <v>751</v>
+        <v>865</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="43">
       <c r="A222" s="43" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B222" s="48" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C222" s="60" t="s">
-        <v>752</v>
+        <v>882</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="43">
       <c r="A223" s="43" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B223" s="49" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C223" s="60" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="29">
       <c r="A224" s="43" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B224" s="49" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C224" s="45" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="34">
       <c r="A225" s="43" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B225" s="46" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="43">
       <c r="A226" s="43" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B226" s="48" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C226" s="45" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="57">
       <c r="A227" s="53" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B227" s="54" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C227" s="61" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="57">
       <c r="A228" s="53" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B228" s="53" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C228" s="61" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="57">
       <c r="A229" s="53" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B229" s="53" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C229" s="61" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="133">
       <c r="A230" s="53" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B230" s="53" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C230" s="53" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="152">
       <c r="A231" s="53" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B231" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C231" s="61" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="190">
       <c r="A232" s="53" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B232" s="53" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C232" s="53" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="95">
       <c r="A233" s="53" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B233" s="53" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C233" s="53" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="171">
       <c r="A234" s="53" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B234" s="53" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C234" s="61" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="114">
       <c r="A235" s="53" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B235" s="53" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C235" s="53" t="s">
-        <v>835</v>
+        <v>883</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="190">
       <c r="A236" s="53" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B236" s="53" t="s">
-        <v>456</v>
-      </c>
-      <c r="C236" s="61" t="s">
-        <v>759</v>
+        <v>452</v>
+      </c>
+      <c r="C236" s="53" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="76">
       <c r="A237" s="53" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B237" s="55" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C237" s="61" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="114">
       <c r="A238" s="53" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B238" s="53" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C238" s="61" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="133">
       <c r="A239" s="53" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B239" s="53" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C239" s="61" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="190">
       <c r="A240" s="53" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B240" s="53" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C240" s="61" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="114">
       <c r="A241" s="53" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B241" s="53" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C241" s="61" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="95">
       <c r="A242" s="53" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B242" s="53" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C242" s="61" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="57">
       <c r="A243" s="53" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B243" s="55" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C243" s="61" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="76">
       <c r="A244" s="53" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B244" s="53" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C244" s="61" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="38">
       <c r="A245" s="53" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B245" s="53" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C245" s="61" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="76">
       <c r="A246" s="53" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B246" s="55" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C246" s="61" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="57">
       <c r="A247" s="53" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B247" s="53" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C247" s="61" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="228">
       <c r="A248" s="53" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B248" s="53" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C248" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="114">
       <c r="A249" s="53" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B249" s="53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C249" s="53" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="114">
       <c r="A250" s="53" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B250" s="53" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C250" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="95">
       <c r="A251" s="53" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B251" s="53" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C251" s="53" t="s">
-        <v>887</v>
+        <v>859</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="38">
       <c r="A252" s="53" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B252" s="53" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C252" s="53" t="s">
-        <v>858</v>
+        <v>832</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="133">
       <c r="A253" s="53" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B253" s="53" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C253" s="53" t="s">
-        <v>859</v>
+        <v>833</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="95">
       <c r="A254" s="53" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B254" s="53" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C254" s="53" t="s">
-        <v>891</v>
+        <v>863</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="38">
       <c r="A255" s="53" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B255" s="53" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C255" s="53" t="s">
-        <v>856</v>
+        <v>830</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="171">
       <c r="A256" s="53" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B256" s="53" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C256" s="61" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="114">
       <c r="A257" s="53" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B257" s="53" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C257" s="53" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="209">
       <c r="A258" s="53" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B258" s="53" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C258" s="53" t="s">
-        <v>862</v>
+        <v>836</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="114">
       <c r="A259" s="53" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B259" s="53" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C259" s="53" t="s">
-        <v>876</v>
+        <v>849</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="114">
       <c r="A260" s="53" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B260" s="53" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C260" s="53" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="190">
       <c r="A261" s="53" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B261" s="53" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C261" s="53" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="114">
       <c r="A262" s="53" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B262" s="53" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C262" s="53" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="228">
       <c r="A263" s="53" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B263" s="53" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C263" s="53" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="95">
       <c r="A264" s="53" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B264" s="53" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C264" s="61" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="114">
       <c r="A265" s="53" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B265" s="53" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C265" s="53" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="76">
       <c r="A266" s="53" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B266" s="53" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C266" s="53" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="114">
       <c r="A267" s="53" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B267" s="53" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C267" s="53" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="57">
       <c r="A268" s="53" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B268" s="53" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C268" s="61" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="95">
       <c r="A269" s="53" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B269" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="C269" s="53" t="s">
         <v>305</v>
-      </c>
-      <c r="C269" s="53" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="76">
       <c r="A270" s="53" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B270" s="53" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C270" s="53" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="95">
       <c r="A271" s="53" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B271" s="53" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C271" s="53" t="s">
-        <v>843</v>
+        <v>819</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="95">
       <c r="A272" s="53" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B272" s="53" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C272" s="53" t="s">
-        <v>842</v>
+        <v>818</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="152">
       <c r="A273" s="53" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B273" s="53" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C273" s="61" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="114">
       <c r="A274" s="53" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B274" s="53" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C274" s="53" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="76">
       <c r="A275" s="53" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B275" s="55" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C275" s="53" t="s">
-        <v>877</v>
+        <v>850</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="57">
       <c r="A276" s="53" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B276" s="56" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C276" s="53" t="s">
-        <v>877</v>
+        <v>850</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="57">
       <c r="A277" s="53" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B277" s="57" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C277" s="61" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="57">
       <c r="A278" s="53" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B278" s="53" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C278" s="53" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="114">
       <c r="A279" s="53" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B279" s="55" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C279" s="53" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="112">
       <c r="A280" s="18" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B280" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C280" t="s">
-        <v>878</v>
+        <v>851</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="192">
       <c r="A281" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C281" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="409.6">
       <c r="A282" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C282" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="96">
       <c r="A283" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C283" t="s">
-        <v>879</v>
+        <v>852</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="80">
       <c r="A284" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C284" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="80">
       <c r="A285" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C285" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="96">
       <c r="A286" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C286" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="144">
       <c r="A287" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C287" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="80">
       <c r="A288" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C288" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="32">
       <c r="A289" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C289" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="96">
       <c r="A290" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C290" t="s">
-        <v>880</v>
+        <v>853</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="176">
       <c r="A291" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C291" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="365">
       <c r="A292" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C292" t="s">
-        <v>881</v>
+        <v>854</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="112">
       <c r="A293" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C293" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="409.6">
       <c r="A294" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C294" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="224">
       <c r="A295" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B295" s="58" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C295" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="288">
       <c r="A296" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C296" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="96">
       <c r="A297" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C297" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="16">
       <c r="A298" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C298" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="32">
       <c r="A299" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C299" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="32">
       <c r="A300" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C300" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="80">
       <c r="A301" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C301" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B302" s="13"/>
     </row>
     <row r="303" spans="1:3" ht="48">
       <c r="A303" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C303" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="208">
       <c r="A304" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C304" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="80">
       <c r="A305" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C305" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="48">
       <c r="A306" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C306" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="176">
       <c r="A307" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C307" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="192">
       <c r="A308" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C308" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="32">
       <c r="A309" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C309" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="144">
       <c r="A310" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C310" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="144">
       <c r="A311" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C311" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="176">
       <c r="A312" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C312" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="64">
       <c r="A313" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C313" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="80">
       <c r="A314" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C314" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="64">
       <c r="A315" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C315" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="32">
       <c r="A316" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C316" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="16">
       <c r="A317" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B317" s="59" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="176">
       <c r="A318" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C318" t="s">
-        <v>778</v>
+        <v>885</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="208">
       <c r="A319" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C319" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="112">
       <c r="A320" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C320" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="365">
       <c r="A321" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C321" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="272">
       <c r="A322" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C322" t="s">
-        <v>860</v>
+        <v>834</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="96">
       <c r="A323" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C323" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="176">
       <c r="A324" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C324" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="32">
       <c r="A325" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C325" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="48">
       <c r="A326" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C326" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="176">
       <c r="A327" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C327" t="s">
-        <v>883</v>
+        <v>856</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="112">
       <c r="A328" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C328" t="s">
-        <v>813</v>
+        <v>886</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="80">
       <c r="A329" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C329" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="176">
       <c r="A330" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C330" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="32">
       <c r="A331" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C331" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="64">
       <c r="A332" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C332" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="160">
       <c r="A333" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C333" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="224">
       <c r="A334" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C334" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>

--- a/qa.xlsx
+++ b/qa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhozh/Desktop/projects/python/bots/pelican_helper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alinaistimirova/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56BA6EE-0CDD-CC44-89C5-B7EE2A1359FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5181C570-78AA-EB47-83B5-D6C87F5A101C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="872">
   <si>
     <t>Вопрос</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Почему пеликан?</t>
-  </si>
-  <si>
-    <t>Почему контрактники платят один раз, а я каждый месяц( бюджетник) ?</t>
   </si>
   <si>
     <t xml:space="preserve">Зачем вступать в Профсоюз? </t>
@@ -164,11 +161,6 @@
   </si>
   <si>
     <t>Почему я символ Профсоюзной организации? Все просто: издавна я считаюсь олицетворением качества "самопожертвование" и символом самоотверженной родительской любви, потому что ради своих птенцов я готов на все! Поэтому Профсоюз подобно мне, защищает самоотверженно твои права, мой дорогой политехник!</t>
-  </si>
-  <si>
-    <t>Я назову тебе 10 причин, почему тебе нужно вступить в Профсоюз: 1. Защита прав и интересов, 2. Материальная поддержка в трудной ситуации 3. Скидки и бонусы СКС-дисконт, 4. Отдых загородом и на море на базах университета, 5. Форумы, мероприятия, выезды, 6. Воплощение твоих самых смелых идей
-7. Мощное студенческое коммьюнити
-8. Твое развитие и получение soft-skills, 9. Профсоюз - твой проводник в стуенчество 10. Профсоюз - это захватывающее приключение</t>
   </si>
   <si>
     <t xml:space="preserve">Социальная стипендия - это выплата, которая назначаются студентам, относящимся к категориям указаным в п.5, ст.36 ФЗ №273 "Об образовании". Размер государственной социальной стипендии равен полуторакратному размеру базовой стипендии и составляет 3300 рублей (для студентов ИСПО – 1200 рублей). Студентам первого и второго курсов бакалавриата и специалитета, имеющим оценки успеваемости «отлично» или «хорошо» и относящимся к категориям лиц, имеющих право на получение государственной социальной стипендии, назначается государственная социальная стипендия в повышенном размере. (в настоящее время – 10000 рублей). По вопросам оформления социальной стипендии необходимо обращаться в дирекцию твоего института. </t>
@@ -421,9 +413,6 @@
     <t>В таком случае обратись за помощью в медицинское учреждение и по требованию предоставь медицинскую справку о пропущенных занятиях.</t>
   </si>
   <si>
-    <t xml:space="preserve">Кто такие профорги? Как ими стать? </t>
-  </si>
-  <si>
     <t>Профорг - ключевое звено для связи академической группы и Профсоюза, это активный студент, представляющий интересы своей группы, если ты инициативен и энергичен, то попробуй себя в роли профорга! Его выбирают в первые дни обучения посредством голосования.</t>
   </si>
   <si>
@@ -706,12 +695,6 @@
     <t>Так как все общежития который входят в состав студгородка Политеха указаны на сайте. Но так как их суммарная вместительность не позволяет вместить всех поступающих студентов, то Политех вынужден арендовать места для проживания у других ВУЗов или с организаций являющихся смешанными комплексами общежитий ВУЗов.</t>
   </si>
   <si>
-    <t>Почему я не могу участвовать в выездных мероприятиях от общежитий Политеха, если живу в МСГ?</t>
-  </si>
-  <si>
-    <t>Смотря какой тип мероприятий. Есть мероприятия с выделенной квотой, которая определяется на основании прошлого года. Так как МСГ с не давних пор принимает студентов Политеха, то и не было учёта квоты на них, в дальнейшем уже будет вестись учёт резервных мест в случае появления ещё подобных ситуация. А так во всех мероприятиях могут принимать участие студенты СПбПУ</t>
-  </si>
-  <si>
     <t>Есть ли возможность смены общежития в Политехе?</t>
   </si>
   <si>
@@ -721,9 +704,6 @@
     <t>Какую функцию выполняют адаптеры?</t>
   </si>
   <si>
-    <t>О, адаптеры - это твои помощники, первокурсник! Они помогут тебе начать существовать в среде ВУЗа:познакомят со структурой Политеха, расскажут много интресных лайфхаков, вдохновят тебя на студенческую жизнь. Адапетры так же курируют группу первокурсников.</t>
-  </si>
-  <si>
     <t>Когда производить оплату обучения?</t>
   </si>
   <si>
@@ -733,9 +713,6 @@
     <t>Можно ли купить экзамен, зачёт, физкультуры, сессию?</t>
   </si>
   <si>
-    <t>А ты бы пошёл к врачу,который проплатил все свои экзамены и зачёты? Думаю, нет! И ответ на твой вопрос - это НЕТ</t>
-  </si>
-  <si>
     <t>Обязательно ли выполнять тесты на OpenEdu?</t>
   </si>
   <si>
@@ -757,23 +734,13 @@
     <t>Что необходимо для учебы по обмену?</t>
   </si>
   <si>
-    <t>Всё про учёбу по обмену ты можешь узнать отсюда: https://www.spbstu.ru/international-cooperation/international-activities/academic-mobility/</t>
-  </si>
-  <si>
     <t>Могу я на первом курсе поехать учиться по обмену?</t>
   </si>
   <si>
-    <t xml:space="preserve">Нет, Поехать учиться по обмену могут студенты очной формы обучения:
-2-3 курс бакалавриата, 2-4 курс специалитета, 2-3 семестр магистратуры; </t>
-  </si>
-  <si>
     <t>первый курс обмен</t>
   </si>
   <si>
     <t>Я перевёлся из другого ВУЗа, некоторые предметы и часы совпадают из прошлого универа, могу ли я закрыть  с помощью них экзамены?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вообще да, можешь. Данный вопрос,конечно же, лучше уточнять  у дирекции твоего института. </t>
   </si>
   <si>
     <t>К кому можно опаздывать на пары/ кто лояльно относиться к опозданиям?</t>
@@ -802,9 +769,6 @@
   </si>
   <si>
     <t>Когда нам начисляют стипендию?</t>
-  </si>
-  <si>
-    <t>25 числа каждого месяца</t>
   </si>
   <si>
     <t>Как можно слететь со стипендии?</t>
@@ -845,22 +809,10 @@
     <t>На самой территории Политеха нет медпункта. Но в шаговой доступности находится Поликлинника №76, за которой как раз все закреплены, ты можешь обратиться туда.</t>
   </si>
   <si>
-    <t>Если я не успел пройти осмотр в поликлинике, я могу сделать это в другой день?</t>
-  </si>
-  <si>
     <t>Если я живу в МСГ, прохожу осмотр в Политеховской поликлинике (метро Площадь Мужества), то за какой поликлиникой я должен закрепляться и обращаться в случае плохого самочувствия?</t>
   </si>
   <si>
     <t>В соответствии с договоренностью СПбПУ и поликлиникой №79 на Хлопина (метро Площадь Мужества) все иногородние студенты прикрепляются к ней, где им заводят амбулаторные карты и ведут учёт их заболеваний и т.п. Однако в случае не хорошего самочувствия вы можете обратиться в ближайшую к вам поликлинику/больницу и т.п. но иметь при себе мед.полис, паспорт и СНИЛС, тогда вам обязаны оказать неотложную мед.помощь.</t>
-  </si>
-  <si>
-    <t>Если я участвую в мероприятии и на меня есть приказ, это не считается пропуском занятий без уважительной причины?</t>
-  </si>
-  <si>
-    <t>Да, это является уважительной причиной. Правда, тебе всё равно придётся отрабоать пропущенные пары.</t>
-  </si>
-  <si>
-    <t>Родители/друзья/близкие хотят зайти в ГЗ в учебное время, им нужен пропуск или чьё-то разрешение?</t>
   </si>
   <si>
     <t>Какие спортивные секции есть в Политехе?</t>
@@ -1019,9 +971,6 @@
     <t>за прогулы физры могут отчислить?</t>
   </si>
   <si>
-    <t>Прогуляешь  это приведёт к неусвоению образовательной программы. Неусвоение повлечёт за собой отчисление. Отсюда следует, что ДА, могут.</t>
-  </si>
-  <si>
     <t>На лекции обязательно ходить?</t>
   </si>
   <si>
@@ -1040,27 +989,12 @@
     <t>Данную информацию ты можешь узнать в своём ЛК студента на сайте Политеха.</t>
   </si>
   <si>
-    <t>Когда медосмотр?</t>
-  </si>
-  <si>
     <t>Как заселиться в общежитие ?</t>
   </si>
   <si>
-    <t>Заселение в общежитие начинается после публикации списков на
-поселение, которое появится не раньше 27-го августа. Точные даты
-публикации этого списка будут анонсированы на специальном сайте для
-первокурсников после 24 августа - информация о сайте появится в наших
-социальных сетях и придет всем зачисленным по SMS.
- Само заселение представляет из себя важный процесс, для ознакомления
-с которым была подготовлена памятка (https://vk.com/@profunionproinstrukciya-po-poryadku-poseleniya-inogorodnih-studentov-per).  При оформлении договора необходимо иметь при себе: • паспорт, копия паспорта (лист 1 и лист с данными о регистрации); • 3 фотографии 3*4 см.; • приписное свидетельство или военный билет (для лиц мужского пола); • справка о прохождении флюорографического осмотра; • нотариально заверенное Согласие законных представителей (для лиц младше 18 лет)</t>
-  </si>
-  <si>
     <t>общежитие заселение</t>
   </si>
   <si>
-    <t>А куда мне отнести мед.справку ?</t>
-  </si>
-  <si>
     <t>А где находится 1-й учебный корпус и т.п. (все корпуса по аналогии, чтобы бот выдавал ссылку с геолокацией корпуса)</t>
   </si>
   <si>
@@ -1068,12 +1002,6 @@
   </si>
   <si>
     <t>В чем разница между профоргом и зам. профорга ?</t>
-  </si>
-  <si>
-    <t>Профорг - ключевое звено для связи академической группы и Профсоюза, это активный студент, представляющий интересы своей группы, если ты инициативен и энергичен, то попробуй себя в роли профорга! Его выбирают в первые дни обучения посредством голосования.А зам. профорга помогает профоргу со всеми его обязанностями.</t>
-  </si>
-  <si>
-    <t>(Если бот будет для адаптеров, то тогда просто сделать чтобы по слову профсоюз выдавал сразу всю инфу ключевую + также по старосте)</t>
   </si>
   <si>
     <t>Где тут можно пойти продолжать обучение пению и т.п. ?</t>
@@ -1144,16 +1072,6 @@
     <t>Чем занимается староста, чем занимается профорг</t>
   </si>
   <si>
-    <t>Староста - это человек в группе, отвественный за контроль учебной сферы студенческой жизни, обеспечивая взаимосвязь между студентами и преподавателями, администрацией университета. Как пример конкретной задачи можно назвать ведение журнала посещаемости группы. Профорг - это самый активный и ответственный человек в группе,
-который является связующим элементом между своими одногруппниками
-и профсоюзной организацией. Между тем он представляет интересы
-группы в вопросах взаимодействия с администрацией университета,
-всячески защищает социальные права своей группы, сплачивает её
-коллектив, оповещает о мероприятиях и проектах, способствует
-организации внеучебной деятельности группы. В целом - незаменимая
-ячейка в активе всего Политехнического университета.</t>
-  </si>
-  <si>
     <t>Какие есть спортивные секции</t>
   </si>
   <si>
@@ -1383,12 +1301,6 @@
   </si>
   <si>
     <t>Вскоре расписание появится на этом сайте: https://ruz.spbstu.ru</t>
-  </si>
-  <si>
-    <t>Когда будут известны списки групп?</t>
-  </si>
-  <si>
-    <t>Какого числа списки о зачислении? Когда нужно явиться в СПб? Будет ли вторая волна зачисления? Нужна ли ссправка о короновирусе при поступлении/заселении в общежитие?</t>
   </si>
   <si>
     <t>Где можно узнать расписание?</t>
@@ -2787,9 +2699,6 @@
     <t>общежит политеха МСГ межвузовский студенческий городок</t>
   </si>
   <si>
-    <t>мероприятия МСГ не могу участ межвузовский студенческий городок</t>
-  </si>
-  <si>
     <t xml:space="preserve">смена общежит </t>
   </si>
   <si>
@@ -2823,18 +2732,9 @@
     <t>медсестр Политех</t>
   </si>
   <si>
-    <t>медосмотр другой день мед осмотр</t>
-  </si>
-  <si>
     <t>МСГ поликлиника</t>
   </si>
   <si>
-    <t>мероприят пропуск занят учеб</t>
-  </si>
-  <si>
-    <t>близкие зайти ГЗ семья главное здание</t>
-  </si>
-  <si>
     <t>секции Политех спорт</t>
   </si>
   <si>
@@ -2874,9 +2774,6 @@
     <t>лекц обязательно</t>
   </si>
   <si>
-    <t>нест мед справк</t>
-  </si>
-  <si>
     <t>профорг зам разниц</t>
   </si>
   <si>
@@ -3012,9 +2909,6 @@
     <t>мерч получ</t>
   </si>
   <si>
-    <t>вступ профсоюз</t>
-  </si>
-  <si>
     <t>материальн помощ</t>
   </si>
   <si>
@@ -3060,12 +2954,6 @@
     <t>пропуски пар занятий</t>
   </si>
   <si>
-    <t>профорг стать</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> адаптер</t>
-  </si>
-  <si>
     <t>привыкнуть город</t>
   </si>
   <si>
@@ -3246,9 +3134,6 @@
     <t xml:space="preserve">английск </t>
   </si>
   <si>
-    <t>контрактн бюджетн каждый месяц</t>
-  </si>
-  <si>
     <t>забыл логин личный кабинет</t>
   </si>
   <si>
@@ -3327,9 +3212,6 @@
     <t>функц адаптер</t>
   </si>
   <si>
-    <t>староста профорг разница отлич</t>
-  </si>
-  <si>
     <t>поступил</t>
   </si>
   <si>
@@ -3388,6 +3270,95 @@
   </si>
   <si>
     <t xml:space="preserve">направления военная кафедра </t>
+  </si>
+  <si>
+    <t>А ты бы пошёл к врачу, который проплатил все свои экзамены и зачёты? Думаю, нет! И ответ на твой вопрос - это НЕТ</t>
+  </si>
+  <si>
+    <t>зачем вступ профсоюз</t>
+  </si>
+  <si>
+    <t>Я назову тебе 10 причин, почему тебе нужно вступить в Профсоюз:
+1. Защита прав и интересов
+2. Материальная поддержка в трудной ситуации
+3. Скидки и бонусы СКС-дисконт
+4. Отдых за городом и на море на базах университета
+5. Форумы, мероприятия, выезды
+6. Воплощение твоих самых смелых идей
+7. Мощное студенческое коммьюнити
+8. Твое развитие и получение soft-skills
+9. Профсоюз - твой проводник в студенчество
+10. Профсоюз - это захватывающее приключение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как вступить в Профсоюз? </t>
+  </si>
+  <si>
+    <t>1. Прийти в Профсоюзную организацию (1 учебный корпус, каб. 349)
+2. Написать заявление на вступление в Профсоюз (и заявление на перечисление взносов для студентов бюджетной формы обучения) 
+или
+заполнить заявления у профорга своей академической группы (тогда приходить в Профсоюз не нужно)
+3. Для студентов контрактной формы обучения – внести вступительный взнос в размере 100р. (взнос – один на весь период обучения), студенты бюджетно формы вступительный взнос не платят
+4. Получить электронный Профсоюзный билет</t>
+  </si>
+  <si>
+    <t>как вступ в профсоюз</t>
+  </si>
+  <si>
+    <t>Прогуляешь  – это приведёт к неусвоению образовательной программы. Неусвоение повлечёт за собой отчисление. Отсюда следует, что ДА, могут.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> зачем адаптер</t>
+  </si>
+  <si>
+    <t>О, адаптеры - это твои помощники, друг! Они помогут тебе начать существовать в среде ВУЗа :познакомят со структурой Политеха, расскажут много интресных лайфхаков, вдохновят тебя на студенческую жизнь. Адапетры так же курируют группу первокурсников.</t>
+  </si>
+  <si>
+    <t>Всё про учёбу по обмену ты можешь узнать здесь:
+https://www.spbstu.ru/international-cooperation/international-activities/academic-mobility/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет, Поехать учиться по обмену могут студенты очной формы обучения:
+2-3 курс бакалавриата, 2-4 курс специалитета, 2-3 семестр магистратуры; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вообще да, можешь. Данный вопрос, конечно же, лучше уточнять  у дирекции твоего института. </t>
+  </si>
+  <si>
+    <t>В расчетный период с 25 числа текущего месяца по 5 число следующего месяца. Обычно, стипендия приходит именно 25 числа.</t>
+  </si>
+  <si>
+    <t>Заселение в общежитие начинается после публикации списков на
+поселение, которое появится не раньше 27-го августа. Точные даты
+публикации этого списка будут анонсированы на специальном сайте для
+первокурсников после 24 августа - информация о сайте появится в наших
+социальных сетях и придет всем зачисленным по SMS.
+Само заселение представляет из себя важный процесс, для ознакомления
+с которым была подготовлена памятка:
+https://vk.com/@profunionproinstrukciya-po-poryadku-poseleniya-inogorodnih-studentov-per.
+При оформлении договора необходимо иметь при себе:
+• паспорт, копия паспорта (лист 1 и лист с данными о регистрации);
+• 3 фотографии 3*4 см.;
+• приписное свидетельство или военный билет (для лиц мужского пола);
+• справка о прохождении флюорографического осмотра;
+• нотариально заверенное Согласие законных представителей (для лиц младше 18 лет)</t>
+  </si>
+  <si>
+    <t>Профорг - ключевое звено для связи академической группы и Профсоюза, это активный студент, представляющий интересы своей группы, если ты инициативен и энергичен, то попробуй себя в роли профорга! Его выбирают в первые дни обучения посредством голосования. А зам. профорга помогает профоргу со всеми его обязанностями.</t>
+  </si>
+  <si>
+    <t>Староста - это человек в группе, отвественный за контроль учебной сферы студенческой жизни, обеспечивая взаимосвязь между студентами и преподавателями, администрацией университета. Как пример конкретной задачи можно назвать ведение журнала посещаемости группы.
+Профорг - это самый активный и ответственный человек в группе,
+который является связующим элементом между своими одногруппниками
+и профсоюзной организацией. Между тем он представляет интересы
+группы в вопросах взаимодействия с администрацией университета,
+всячески защищает социальные права своей группы, сплачивает её
+коллектив, оповещает о мероприятиях и проектах, способствует
+организации внеучебной деятельности группы. В целом - незаменимая
+ячейка в активе всего Политехнического университета.</t>
+  </si>
+  <si>
+    <t>староста профорг отлич</t>
   </si>
 </sst>
 </file>
@@ -4238,8 +4209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C114" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C119" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="50" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4271,95 +4242,98 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="32">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="160">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>858</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>859</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="112">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="176">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>857</v>
       </c>
       <c r="C7" t="s">
-        <v>763</v>
+        <v>856</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="71">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>764</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="176">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="96">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="32">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>766</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="64">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>767</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4367,24 +4341,24 @@
     </row>
     <row r="14" spans="1:3" ht="85">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="64">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>768</v>
+        <v>738</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4395,827 +4369,815 @@
     </row>
     <row r="18" spans="1:3" ht="96">
       <c r="A18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="48">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>842</v>
+        <v>809</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="48">
       <c r="A21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>843</v>
+        <v>810</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="48">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>769</v>
+        <v>739</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="32">
       <c r="A23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="112">
       <c r="A24" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>844</v>
+        <v>811</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="32">
       <c r="A25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="48">
       <c r="A26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>869</v>
+        <v>835</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="48">
       <c r="A27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="48">
       <c r="A28" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>887</v>
+        <v>853</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="48">
       <c r="A29" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>864</v>
+        <v>831</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16">
       <c r="A30" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>870</v>
+        <v>836</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="288">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>871</v>
+        <v>837</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="32">
       <c r="A32" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>770</v>
+        <v>740</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="48">
       <c r="A33" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>771</v>
+        <v>741</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16">
       <c r="A34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="32">
       <c r="A35" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="64">
       <c r="A36" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="64">
       <c r="A37" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="190">
       <c r="A38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>820</v>
+        <v>788</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="61">
       <c r="A39" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>821</v>
+        <v>789</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="32">
       <c r="A40" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>888</v>
+        <v>854</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="48">
       <c r="A41" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="128">
       <c r="A42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>822</v>
+        <v>790</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="128">
       <c r="A43" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="64">
       <c r="A44" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="80">
       <c r="A45" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>772</v>
+        <v>742</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="80">
       <c r="A46" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>773</v>
+        <v>743</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="192">
       <c r="A47" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>774</v>
+        <v>744</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="48">
       <c r="A48" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>775</v>
+        <v>745</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16">
       <c r="A49" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>776</v>
+        <v>746</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="48">
       <c r="A50" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>777</v>
+        <v>747</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="32">
       <c r="A51" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="32">
       <c r="A52" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="64">
-      <c r="A53" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>779</v>
-      </c>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" ht="64">
       <c r="A54" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>780</v>
+        <v>862</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="64">
       <c r="A55" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="96">
       <c r="A56" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="64">
       <c r="A57" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>783</v>
+        <v>751</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="48">
       <c r="A58" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="80">
       <c r="A59" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="80">
       <c r="A60" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="112">
       <c r="A61" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="48">
       <c r="A62" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>872</v>
+        <v>838</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="96">
       <c r="A63" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16">
       <c r="A64" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="48">
       <c r="A65" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>823</v>
+        <v>791</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="32">
       <c r="A66" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="64">
       <c r="A67" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>873</v>
+        <v>839</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="48">
       <c r="A68" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="32">
       <c r="A69" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="48">
       <c r="A70" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>874</v>
+        <v>840</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="48">
       <c r="A71" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>857</v>
+        <v>824</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="48">
       <c r="A72" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>784</v>
+        <v>752</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="64">
       <c r="A73" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="32">
       <c r="A74" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>785</v>
+        <v>753</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="48">
       <c r="A75" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>786</v>
+        <v>754</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="64">
       <c r="A76" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16">
       <c r="A77" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="48">
       <c r="A78" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>860</v>
+        <v>827</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="48">
       <c r="A79" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="38">
       <c r="A80" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="18">
       <c r="A81" s="25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="32">
       <c r="A82" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="105">
       <c r="A83" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="38">
       <c r="A84" s="27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>875</v>
+        <v>841</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="60">
       <c r="A85" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="71">
       <c r="A86" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="85">
-      <c r="A87" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B87" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>688</v>
-      </c>
+        <v>663</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18">
+      <c r="A87" s="31"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" ht="113">
       <c r="A88" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="64">
       <c r="A89" s="25" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>175</v>
+        <v>863</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="32">
       <c r="A90" s="25" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>815</v>
+        <v>783</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="38">
       <c r="A91" s="24" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>179</v>
+        <v>855</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="38">
       <c r="A92" s="24" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="18">
@@ -5224,134 +5186,134 @@
     </row>
     <row r="94" spans="1:3" ht="32">
       <c r="A94" s="25" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>788</v>
+        <v>756</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="32">
       <c r="A95" s="24" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="48">
       <c r="A96" s="25" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>187</v>
+        <v>864</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="48">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="38">
       <c r="A97" s="24" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>189</v>
+        <v>865</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="76">
       <c r="A98" s="31" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>192</v>
+        <v>866</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="48">
       <c r="A99" s="24" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>876</v>
+        <v>842</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="32">
       <c r="A100" s="25" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>789</v>
+        <v>757</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="136">
       <c r="A101" s="24" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="38">
       <c r="A102" s="24" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="18">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="32">
       <c r="A103" s="25" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>202</v>
+        <v>867</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>696</v>
+        <v>671</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="32">
       <c r="A104" s="25" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="120">
       <c r="A105" s="31" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="18">
@@ -5365,150 +5327,135 @@
     </row>
     <row r="108" spans="1:3" ht="48">
       <c r="A108" s="24" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="57">
-      <c r="A109" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>700</v>
-      </c>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="18">
+      <c r="A109" s="27"/>
+      <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3" ht="95">
       <c r="A110" s="31" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="57">
-      <c r="A111" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="57">
-      <c r="A112" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>703</v>
-      </c>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="18">
+      <c r="A111" s="31"/>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" ht="18">
+      <c r="A112" s="31"/>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3" ht="61">
       <c r="A113" s="24" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="B113" s="34" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="57">
       <c r="A114" s="24" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>861</v>
+        <v>828</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="57">
       <c r="A115" s="24" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="57">
       <c r="A116" s="24" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>877</v>
+        <v>843</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="153">
       <c r="A117" s="24" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="38">
       <c r="A118" s="24" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>814</v>
+        <v>782</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="57">
       <c r="A119" s="24" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="38">
       <c r="A120" s="24" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="57">
       <c r="A121" s="24" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="18">
@@ -5521,35 +5468,35 @@
     </row>
     <row r="124" spans="1:3" ht="48">
       <c r="A124" s="24" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="38">
       <c r="A125" s="24" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="38">
       <c r="A126" s="24" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="18">
@@ -5558,157 +5505,147 @@
     </row>
     <row r="128" spans="1:3" ht="32">
       <c r="A128" s="25" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="18">
       <c r="A129" s="25" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="32">
       <c r="A130" s="25" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>837</v>
+        <v>805</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="19">
       <c r="A131" s="24" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="32">
       <c r="A132" s="24" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>249</v>
+        <v>861</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="48">
       <c r="A133" s="25" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="34">
       <c r="A134" s="25" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="B134" s="36" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>827</v>
+        <v>795</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="18">
       <c r="A135" s="25" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>846</v>
+        <v>813</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="18">
-      <c r="A136" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="224">
+      <c r="A136" s="37"/>
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="1:3" ht="288">
       <c r="A137" s="38" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>258</v>
+        <v>868</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>835</v>
+        <v>803</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="39" t="s">
-        <v>260</v>
-      </c>
+      <c r="A138" s="39"/>
       <c r="B138" s="38"/>
-      <c r="C138" s="38" t="s">
-        <v>717</v>
-      </c>
+      <c r="C138" s="38"/>
     </row>
     <row r="139" spans="1:3" ht="48">
       <c r="A139" s="14" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C139" s="38" t="s">
-        <v>825</v>
+        <v>793</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="64">
       <c r="A140" s="39" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>836</v>
+        <v>804</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="80">
       <c r="A141" s="39" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>264</v>
+        <v>869</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="48">
-      <c r="A142" s="40" t="s">
-        <v>265</v>
-      </c>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="40"/>
       <c r="B142" s="38"/>
       <c r="C142" s="38"/>
     </row>
@@ -5719,159 +5656,159 @@
     </row>
     <row r="144" spans="1:3" ht="32">
       <c r="A144" s="39" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>719</v>
+        <v>690</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="192">
       <c r="A145" s="39" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="C145" s="38" t="s">
-        <v>720</v>
+        <v>691</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="64">
       <c r="A146" s="39" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C146" s="38" t="s">
-        <v>721</v>
+        <v>692</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="41" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B147" s="38"/>
       <c r="C147" s="38"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="39" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C148" s="38" t="s">
-        <v>828</v>
+        <v>796</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="39" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C149" s="38" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="41" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="B150" s="38"/>
       <c r="C150" s="38" t="s">
-        <v>722</v>
+        <v>693</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="39" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="B151" s="38" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C151" s="38" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="41" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="B152" s="38"/>
       <c r="C152" s="38" t="s">
-        <v>723</v>
+        <v>694</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="32">
       <c r="A153" s="14" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="B153" s="38" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="192">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="208">
       <c r="A154" s="39" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>285</v>
+        <v>870</v>
       </c>
       <c r="C154" s="38" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="64">
       <c r="A155" s="14" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C155" s="38" t="s">
-        <v>725</v>
+        <v>696</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="39" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C156" s="38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="39" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C157" s="38" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="32">
       <c r="A158" s="39" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C158" s="38" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -5881,167 +5818,167 @@
     </row>
     <row r="160" spans="1:3" ht="32">
       <c r="A160" s="39" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="39" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B161" s="38" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="C161" s="38" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="39" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B162" s="38" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="C162" s="38" t="s">
-        <v>727</v>
+        <v>698</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="48">
       <c r="A163" s="39" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C163" s="38" t="s">
-        <v>728</v>
+        <v>699</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="39" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="B164" s="38" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C164" s="38" t="s">
-        <v>729</v>
+        <v>700</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="39" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="B165" s="38" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C165" s="38" t="s">
-        <v>730</v>
+        <v>701</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="39" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="B166" s="38" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="C166" s="38" t="s">
-        <v>731</v>
+        <v>702</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="39" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="B167" s="38" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="C167" s="38" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="39" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="B168" s="38" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C168" s="38" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="32">
       <c r="A169" s="14" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="B169" s="38" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C169" s="38" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="39" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="B170" s="38" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="C170" s="38" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="39" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="B171" s="38" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C171" s="38" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="39" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B172" s="38" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C172" s="38" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="16">
       <c r="A173" s="14" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="B173" s="38" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="C173" s="38" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="32">
       <c r="A174" s="14" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="B174" s="38" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C174" s="38" t="s">
-        <v>732</v>
+        <v>703</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -6051,46 +5988,46 @@
     </row>
     <row r="176" spans="1:3" ht="80">
       <c r="A176" s="39" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C176" s="38" t="s">
-        <v>878</v>
+        <v>844</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="39" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B177" s="38" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="C177" s="38" t="s">
-        <v>733</v>
+        <v>704</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="64">
       <c r="A178" s="39" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C178" s="38" t="s">
-        <v>734</v>
+        <v>705</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="48">
       <c r="A179" s="39" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C179" s="38" t="s">
-        <v>879</v>
+        <v>845</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -6100,24 +6037,24 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="39" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B181" s="38" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C181" s="38" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="42" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="B182" s="38" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="C182" s="38" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -6127,20 +6064,20 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="41" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="B184" s="38"/>
       <c r="C184" s="38"/>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="39" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="B185" s="38" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="C185" s="38" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -6150,192 +6087,187 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="39" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B187" s="38" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="C187" s="38" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="39" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="48">
       <c r="A189" s="39" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C189" s="38" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="32">
       <c r="A190" s="39" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="C190" s="38" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="39" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="B191" s="38" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C191" s="38" t="s">
-        <v>880</v>
+        <v>846</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="48">
       <c r="A192" s="39" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C192" s="38" t="s">
-        <v>845</v>
+        <v>812</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="64">
       <c r="A193" s="39" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C193" s="38" t="s">
-        <v>846</v>
+        <v>813</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="48">
       <c r="A194" s="39" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C194" s="38" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="16">
       <c r="A195" s="39" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="C195" s="38" t="s">
-        <v>830</v>
+        <v>798</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="41" t="s">
-        <v>363</v>
-      </c>
+      <c r="A196" s="40"/>
       <c r="B196" s="38"/>
       <c r="C196" s="38"/>
     </row>
-    <row r="197" spans="1:3" ht="64">
-      <c r="A197" s="40" t="s">
-        <v>364</v>
-      </c>
+    <row r="197" spans="1:3">
       <c r="B197" s="38"/>
       <c r="C197" s="38"/>
     </row>
     <row r="198" spans="1:3" ht="29">
       <c r="A198" s="43" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="B198" s="44" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="C198" s="60" t="s">
-        <v>829</v>
+        <v>797</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="57">
       <c r="A199" s="43" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B199" s="46" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C199" s="45" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="29">
       <c r="A200" s="43" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="B200" s="47" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="C200" s="45" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="43">
       <c r="A201" s="43" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="B201" s="46" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="C201" s="45" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="43">
       <c r="A202" s="43" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="B202" s="46" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C202" s="60" t="s">
-        <v>881</v>
+        <v>847</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="57">
       <c r="A203" s="43" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="B203" s="46" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="C203" s="60" t="s">
-        <v>848</v>
+        <v>815</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="169">
       <c r="A204" s="43" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="B204" s="46" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="C204" s="45" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="16">
@@ -6343,1404 +6275,1404 @@
     </row>
     <row r="206" spans="1:3" ht="43">
       <c r="A206" s="43" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="B206" s="48" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="C206" s="60" t="s">
-        <v>838</v>
+        <v>806</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="71">
       <c r="A207" s="43" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="B207" s="46" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="C207" s="45" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="71">
       <c r="A208" s="43" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="B208" s="46" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="C208" s="60" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="43">
       <c r="A209" s="43" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B209" s="49" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="C209" s="45" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="29">
       <c r="A210" s="43" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B210" s="46" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="C210" s="45" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="43">
       <c r="A211" s="43" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="B211" s="46" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="C211" s="60" t="s">
-        <v>840</v>
+        <v>808</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="17">
       <c r="A212" s="43" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="B212" s="46" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="85">
       <c r="A213" s="43" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="B213" s="48" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="C213" s="60" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="136">
       <c r="A214" s="43" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="B214" s="50" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="C214" s="45" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="34">
       <c r="A215" s="43" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="B215" s="49" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="C215" s="45" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="17">
       <c r="A216" s="43" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="B216" s="46" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="43">
       <c r="A217" s="51" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="B217" s="49" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="C217" s="45" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="202">
       <c r="A218" s="52" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="B218" s="49" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="C218" s="60" t="s">
-        <v>817</v>
+        <v>785</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="43">
       <c r="A219" s="43" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="B219" s="49" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="C219" s="60" t="s">
-        <v>735</v>
+        <v>706</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="43">
       <c r="A220" s="43" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="B220" s="48" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C220" s="60" t="s">
-        <v>736</v>
+        <v>707</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="60">
       <c r="A221" s="43" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="B221" s="49" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="C221" s="60" t="s">
-        <v>865</v>
+        <v>832</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="43">
       <c r="A222" s="43" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="B222" s="48" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="C222" s="60" t="s">
-        <v>882</v>
+        <v>848</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="43">
       <c r="A223" s="43" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="B223" s="49" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="C223" s="60" t="s">
-        <v>737</v>
+        <v>708</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="29">
       <c r="A224" s="43" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="B224" s="49" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="C224" s="45" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="34">
       <c r="A225" s="43" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="B225" s="46" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="43">
       <c r="A226" s="43" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="B226" s="48" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="C226" s="45" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="57">
       <c r="A227" s="53" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="B227" s="54" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="C227" s="61" t="s">
-        <v>739</v>
+        <v>710</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="57">
       <c r="A228" s="53" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="B228" s="53" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="C228" s="61" t="s">
-        <v>738</v>
+        <v>709</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="57">
       <c r="A229" s="53" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="B229" s="53" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="C229" s="61" t="s">
-        <v>740</v>
+        <v>711</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="133">
       <c r="A230" s="53" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="B230" s="53" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="C230" s="53" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="152">
       <c r="A231" s="53" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="B231" s="53" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="C231" s="61" t="s">
-        <v>741</v>
+        <v>712</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="190">
       <c r="A232" s="53" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="B232" s="53" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="C232" s="53" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="95">
       <c r="A233" s="53" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="B233" s="53" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="C233" s="53" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="171">
       <c r="A234" s="53" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="B234" s="53" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="C234" s="61" t="s">
-        <v>742</v>
+        <v>713</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="114">
       <c r="A235" s="53" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="B235" s="53" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="C235" s="53" t="s">
-        <v>883</v>
+        <v>849</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="190">
       <c r="A236" s="53" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="B236" s="53" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="C236" s="53" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="76">
       <c r="A237" s="53" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="B237" s="55" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="C237" s="61" t="s">
-        <v>743</v>
+        <v>714</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="114">
       <c r="A238" s="53" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="B238" s="53" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="C238" s="61" t="s">
-        <v>744</v>
+        <v>715</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="133">
       <c r="A239" s="53" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="B239" s="53" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="C239" s="61" t="s">
-        <v>745</v>
+        <v>716</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="190">
       <c r="A240" s="53" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="B240" s="53" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="C240" s="61" t="s">
-        <v>746</v>
+        <v>717</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="114">
       <c r="A241" s="53" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="B241" s="53" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="C241" s="61" t="s">
-        <v>747</v>
+        <v>718</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="95">
       <c r="A242" s="53" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="B242" s="53" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C242" s="61" t="s">
-        <v>748</v>
+        <v>719</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="57">
       <c r="A243" s="53" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="B243" s="55" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C243" s="61" t="s">
-        <v>749</v>
+        <v>720</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="76">
       <c r="A244" s="53" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="B244" s="53" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="C244" s="61" t="s">
-        <v>750</v>
+        <v>721</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="38">
       <c r="A245" s="53" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="B245" s="53" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="C245" s="61" t="s">
-        <v>751</v>
+        <v>722</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="76">
       <c r="A246" s="53" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="B246" s="55" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="C246" s="61" t="s">
-        <v>733</v>
+        <v>704</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="57">
       <c r="A247" s="53" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="B247" s="53" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="C247" s="61" t="s">
-        <v>752</v>
+        <v>723</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="228">
       <c r="A248" s="53" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="B248" s="53" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="C248" s="53" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="114">
       <c r="A249" s="53" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="B249" s="53" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C249" s="53" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="114">
       <c r="A250" s="53" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="B250" s="53" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="C250" s="53" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="95">
       <c r="A251" s="53" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="B251" s="53" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="C251" s="53" t="s">
-        <v>859</v>
+        <v>826</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="38">
       <c r="A252" s="53" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="B252" s="53" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="C252" s="53" t="s">
-        <v>832</v>
+        <v>800</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="133">
       <c r="A253" s="53" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="B253" s="53" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="C253" s="53" t="s">
-        <v>833</v>
+        <v>801</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="95">
       <c r="A254" s="53" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="B254" s="53" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="C254" s="53" t="s">
-        <v>863</v>
+        <v>830</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="38">
       <c r="A255" s="53" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="B255" s="53" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="C255" s="53" t="s">
-        <v>830</v>
+        <v>798</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="171">
       <c r="A256" s="53" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="B256" s="53" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="C256" s="61" t="s">
-        <v>753</v>
+        <v>724</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="114">
       <c r="A257" s="53" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="B257" s="53" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="C257" s="53" t="s">
-        <v>832</v>
+        <v>800</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="209">
       <c r="A258" s="53" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="B258" s="53" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="C258" s="53" t="s">
-        <v>836</v>
+        <v>804</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="114">
       <c r="A259" s="53" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="B259" s="53" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="C259" s="53" t="s">
-        <v>849</v>
+        <v>816</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="114">
       <c r="A260" s="53" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="B260" s="53" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="C260" s="53" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="190">
       <c r="A261" s="53" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="B261" s="53" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="C261" s="53" t="s">
-        <v>813</v>
+        <v>781</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="114">
       <c r="A262" s="53" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="B262" s="53" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="C262" s="53" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="228">
       <c r="A263" s="53" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="B263" s="53" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="C263" s="53" t="s">
-        <v>812</v>
+        <v>780</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="95">
       <c r="A264" s="53" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="B264" s="53" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="C264" s="61" t="s">
-        <v>754</v>
+        <v>725</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="114">
       <c r="A265" s="53" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="B265" s="53" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="C265" s="53" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="76">
       <c r="A266" s="53" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="B266" s="53" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C266" s="53" t="s">
-        <v>795</v>
+        <v>763</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="114">
       <c r="A267" s="53" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="B267" s="53" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="C267" s="53" t="s">
-        <v>811</v>
+        <v>779</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="57">
       <c r="A268" s="53" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="B268" s="53" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C268" s="61" t="s">
-        <v>755</v>
+        <v>726</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="95">
       <c r="A269" s="53" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="B269" s="53" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C269" s="53" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="76">
       <c r="A270" s="53" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="B270" s="53" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C270" s="53" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="95">
       <c r="A271" s="53" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="B271" s="53" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C271" s="53" t="s">
-        <v>819</v>
+        <v>787</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="95">
       <c r="A272" s="53" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="B272" s="53" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="C272" s="53" t="s">
-        <v>818</v>
+        <v>786</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="152">
       <c r="A273" s="53" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="B273" s="53" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="C273" s="61" t="s">
-        <v>756</v>
+        <v>727</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="114">
       <c r="A274" s="53" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="B274" s="53" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="C274" s="53" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="76">
       <c r="A275" s="53" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="B275" s="55" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C275" s="53" t="s">
-        <v>850</v>
+        <v>817</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="57">
       <c r="A276" s="53" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="B276" s="56" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C276" s="53" t="s">
-        <v>850</v>
+        <v>817</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="57">
       <c r="A277" s="53" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="B277" s="57" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="C277" s="61" t="s">
-        <v>757</v>
+        <v>728</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="57">
       <c r="A278" s="53" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="B278" s="53" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="C278" s="53" t="s">
-        <v>809</v>
+        <v>777</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="114">
       <c r="A279" s="53" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="B279" s="55" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="C279" s="53" t="s">
-        <v>810</v>
+        <v>778</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="112">
       <c r="A280" s="18" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="B280" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="C280" t="s">
-        <v>851</v>
+        <v>818</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="192">
       <c r="A281" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="B281" s="13" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="C281" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="409.6">
       <c r="A282" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C282" t="s">
-        <v>808</v>
+        <v>776</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="96">
       <c r="A283" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="C283" t="s">
-        <v>852</v>
+        <v>819</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="80">
       <c r="A284" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="C284" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="80">
       <c r="A285" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="B285" s="13" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="C285" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="96">
       <c r="A286" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="C286" t="s">
-        <v>807</v>
+        <v>775</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="144">
       <c r="A287" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C287" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="80">
       <c r="A288" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="C288" t="s">
-        <v>758</v>
+        <v>729</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="32">
       <c r="A289" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="B289" s="13" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C289" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="96">
       <c r="A290" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="C290" t="s">
-        <v>853</v>
+        <v>820</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="176">
       <c r="A291" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="B291" s="13" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="C291" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="365">
       <c r="A292" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="B292" s="13" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="C292" t="s">
-        <v>854</v>
+        <v>821</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="112">
       <c r="A293" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="B293" s="13" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="C293" t="s">
-        <v>806</v>
+        <v>774</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="409.6">
       <c r="A294" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="B294" s="13" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="C294" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="224">
       <c r="A295" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="B295" s="58" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="C295" t="s">
-        <v>804</v>
+        <v>772</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="288">
       <c r="A296" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="B296" s="13" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="C296" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="96">
       <c r="A297" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B297" s="13" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="C297" t="s">
-        <v>803</v>
+        <v>771</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="16">
       <c r="A298" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="B298" s="13" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="C298" t="s">
-        <v>760</v>
+        <v>731</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="32">
       <c r="A299" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="B299" s="13" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="C299" t="s">
-        <v>759</v>
+        <v>730</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="32">
       <c r="A300" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="B300" s="13" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="C300" t="s">
-        <v>802</v>
+        <v>770</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="80">
       <c r="A301" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="B301" s="13" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="C301" t="s">
-        <v>801</v>
+        <v>769</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="B302" s="13"/>
     </row>
     <row r="303" spans="1:3" ht="48">
       <c r="A303" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="C303" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="208">
       <c r="A304" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="C304" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="80">
       <c r="A305" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="B305" s="13" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="C305" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="48">
       <c r="A306" s="2" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="B306" s="13" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="C306" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="176">
       <c r="A307" s="2" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="C307" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="192">
       <c r="A308" s="2" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="B308" s="13" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="C308" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="32">
       <c r="A309" s="2" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="B309" s="13" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="C309" t="s">
-        <v>799</v>
+        <v>767</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="144">
       <c r="A310" s="2" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="B310" s="13" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="C310" t="s">
-        <v>798</v>
+        <v>766</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="144">
       <c r="A311" s="2" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="B311" s="13" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C311" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="176">
       <c r="A312" s="2" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="B312" s="13" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="C312" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="64">
       <c r="A313" s="2" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="B313" s="13" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="C313" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="80">
       <c r="A314" s="2" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="C314" t="s">
-        <v>797</v>
+        <v>765</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="64">
       <c r="A315" s="2" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="B315" s="13" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="C315" t="s">
-        <v>790</v>
+        <v>758</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="32">
       <c r="A316" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="B316" s="13" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="C316" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="16">
       <c r="A317" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="B317" s="59" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="176">
       <c r="A318" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="B318" s="13" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="C318" t="s">
-        <v>885</v>
+        <v>851</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="208">
       <c r="A319" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="B319" s="13" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="C319" t="s">
-        <v>795</v>
+        <v>763</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="112">
       <c r="A320" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="B320" s="13" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="C320" t="s">
-        <v>794</v>
+        <v>762</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="365">
       <c r="A321" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="B321" s="13" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="C321" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="272">
       <c r="A322" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="C322" t="s">
-        <v>834</v>
+        <v>802</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="96">
       <c r="A323" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="B323" s="13" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="C323" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="176">
       <c r="A324" s="2" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="B324" s="13" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="C324" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="32">
       <c r="A325" s="2" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="B325" s="13" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="C325" t="s">
-        <v>761</v>
+        <v>732</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="48">
       <c r="A326" s="2" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="B326" s="13" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="C326" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="176">
       <c r="A327" s="2" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="B327" s="13" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="C327" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="112">
       <c r="A328" s="2" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="B328" s="13" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="C328" t="s">
-        <v>886</v>
+        <v>852</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="80">
       <c r="A329" s="2" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="B329" s="13" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="C329" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="176">
       <c r="A330" s="2" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="B330" s="13" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="C330" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="32">
       <c r="A331" s="2" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="B331" s="13" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="C331" t="s">
-        <v>793</v>
+        <v>761</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="64">
       <c r="A332" s="2" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="B332" s="13" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="C332" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="160">
       <c r="A333" s="2" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="B333" s="13" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="C333" t="s">
-        <v>791</v>
+        <v>759</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="224">
       <c r="A334" s="2" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="B334" s="13" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="C334" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/qa.xlsx
+++ b/qa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alinaistimirova/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhozh/Desktop/projects/python/bots/pelican_helper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5181C570-78AA-EB47-83B5-D6C87F5A101C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755691E7-56F1-D642-8D5B-3579116D47D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16500" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49120" yWindow="-3860" windowWidth="21960" windowHeight="19700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="871">
   <si>
     <t>Вопрос</t>
   </si>
@@ -3275,9 +3275,6 @@
     <t>А ты бы пошёл к врачу, который проплатил все свои экзамены и зачёты? Думаю, нет! И ответ на твой вопрос - это НЕТ</t>
   </si>
   <si>
-    <t>зачем вступ профсоюз</t>
-  </si>
-  <si>
     <t>Я назову тебе 10 причин, почему тебе нужно вступить в Профсоюз:
 1. Защита прав и интересов
 2. Материальная поддержка в трудной ситуации
@@ -3300,9 +3297,6 @@
 заполнить заявления у профорга своей академической группы (тогда приходить в Профсоюз не нужно)
 3. Для студентов контрактной формы обучения – внести вступительный взнос в размере 100р. (взнос – один на весь период обучения), студенты бюджетно формы вступительный взнос не платят
 4. Получить электронный Профсоюзный билет</t>
-  </si>
-  <si>
-    <t>как вступ в профсоюз</t>
   </si>
   <si>
     <t>Прогуляешь  – это приведёт к неусвоению образовательной программы. Неусвоение повлечёт за собой отчисление. Отсюда следует, что ДА, могут.</t>
@@ -3359,6 +3353,9 @@
   </si>
   <si>
     <t>староста профорг отлич</t>
+  </si>
+  <si>
+    <t>вступ профсоюз</t>
   </si>
 </sst>
 </file>
@@ -4209,8 +4206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="50" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4250,13 +4247,13 @@
     </row>
     <row r="5" spans="1:3" ht="160">
       <c r="A5" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>859</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32">
@@ -4275,10 +4272,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C7" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="71">
@@ -4765,7 +4762,7 @@
         <v>93</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="64">
@@ -4999,7 +4996,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="64">
+    <row r="76" spans="1:3" ht="80">
       <c r="A76" s="16" t="s">
         <v>138</v>
       </c>
@@ -5141,7 +5138,7 @@
         <v>169</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>834</v>
@@ -5211,7 +5208,7 @@
         <v>179</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>792</v>
@@ -5222,7 +5219,7 @@
         <v>180</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>181</v>
@@ -5233,7 +5230,7 @@
         <v>182</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>668</v>
@@ -5288,7 +5285,7 @@
         <v>191</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>671</v>
@@ -5305,7 +5302,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="120">
+    <row r="105" spans="1:3" ht="135">
       <c r="A105" s="31" t="s">
         <v>194</v>
       </c>
@@ -5340,7 +5337,7 @@
       <c r="A109" s="27"/>
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="1:3" ht="95">
+    <row r="110" spans="1:3" ht="99">
       <c r="A110" s="31" t="s">
         <v>198</v>
       </c>
@@ -5552,7 +5549,7 @@
         <v>233</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>687</v>
@@ -5600,7 +5597,7 @@
         <v>240</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>803</v>
@@ -5638,7 +5635,7 @@
         <v>244</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C141" s="17" t="s">
         <v>689</v>
@@ -5745,7 +5742,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="32">
+    <row r="153" spans="1:3" ht="48">
       <c r="A153" s="14" t="s">
         <v>260</v>
       </c>
@@ -5761,10 +5758,10 @@
         <v>263</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C154" s="38" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="64">
